--- a/storage/app/iprs/1/iprs.xlsx
+++ b/storage/app/iprs/1/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079C3A22-21CE-4672-AC06-E14BD99CCED5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00CA884-EA81-4CF9-9598-EBAF8DD0F0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,16 +16,11 @@
     <sheet name="Bilans IPR i nadwykonania" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhqe2oxQtTLlfjGGomgU9sSR/Cydg=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -182,16 +177,41 @@
   <si>
     <t>M1-W025</t>
   </si>
+  <si>
+    <t>M1-W007</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="13">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* \-??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
+    <numFmt numFmtId="172" formatCode="[$-415]General"/>
+    <numFmt numFmtId="173" formatCode="#,##0.00&quot; &quot;[$zł-415];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$zł-415]"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00&quot; zł&quot;_-;\-* #,##0.00&quot; zł&quot;_-;_-* \-??&quot; zł&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="86">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -218,8 +238,593 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="28"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="28"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="7.5"/>
+      <color indexed="12"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial CE"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica-Black"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="16"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +855,245 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor indexed="38"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="61"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+        <bgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="60"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="21"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+        <bgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor indexed="37"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -343,57 +1185,1144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="25"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="42" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="43" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="172" fontId="42" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="172" fontId="43" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="45" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="72" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="74" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="73" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="74" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="22"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="84" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="46" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="418">
+    <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{B93C6E86-B24C-4DE8-983C-EFDD836848C5}"/>
+    <cellStyle name="20% - Accent1 3" xfId="3" xr:uid="{65751210-4791-44D0-8CE0-3AF76E89CF0D}"/>
+    <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{07E6CA6A-B34D-4001-9EA7-D9D4E5876D5A}"/>
+    <cellStyle name="20% - Accent2 3" xfId="5" xr:uid="{B2164DEA-1DB7-4368-B3CD-2934B78BC1E4}"/>
+    <cellStyle name="20% - Accent3 2" xfId="8" xr:uid="{979C3F28-0103-480B-89B7-A65D2E0BCBF9}"/>
+    <cellStyle name="20% - Accent3 3" xfId="7" xr:uid="{F7BA6E11-E1AF-404B-99E3-6600B21ADFF3}"/>
+    <cellStyle name="20% - Accent4 2" xfId="10" xr:uid="{F2F864F5-42F0-469A-AA01-8094A21A68D9}"/>
+    <cellStyle name="20% - Accent4 3" xfId="9" xr:uid="{1C6FBDD2-73C9-428D-8A9C-35EE8499F795}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{A7F52581-AD3C-4000-A202-2669AE776076}"/>
+    <cellStyle name="20% - Accent5 3" xfId="11" xr:uid="{A1BA07B5-0324-4533-8D60-F8AE58A5E4C3}"/>
+    <cellStyle name="20% - Accent6 2" xfId="14" xr:uid="{6CDC05A5-375A-45BD-858A-E465F1FD73F5}"/>
+    <cellStyle name="20% - Accent6 3" xfId="13" xr:uid="{39116037-1006-4F14-9406-A7555BB9E835}"/>
+    <cellStyle name="20% - akcent 1 2" xfId="15" xr:uid="{E3F1AE84-182C-42B8-80EE-473D8B6DCE8F}"/>
+    <cellStyle name="20% - akcent 1 2 2" xfId="16" xr:uid="{A6EF8694-C059-43D3-AD28-6B0E4F956E0B}"/>
+    <cellStyle name="20% - akcent 2 2" xfId="17" xr:uid="{30B221C6-B4ED-440F-9F59-569587E0C93E}"/>
+    <cellStyle name="20% - akcent 2 2 2" xfId="18" xr:uid="{BCC79BD6-5720-4FAA-AC8F-89D0D8B500F6}"/>
+    <cellStyle name="20% - akcent 3 2" xfId="19" xr:uid="{46D676D1-2013-436F-89E1-24BEF27D9D13}"/>
+    <cellStyle name="20% - akcent 3 2 2" xfId="20" xr:uid="{0AC87E54-6968-4069-8EF1-97E55D3679AC}"/>
+    <cellStyle name="20% - akcent 4 2" xfId="21" xr:uid="{26E69D20-E786-47EA-9E26-06911C6F5A68}"/>
+    <cellStyle name="20% - akcent 4 2 2" xfId="22" xr:uid="{042CE920-6954-4A49-AD02-34D129C106B6}"/>
+    <cellStyle name="20% - akcent 5 2" xfId="23" xr:uid="{08011625-FD6B-42A9-B802-DDB976D7C6BB}"/>
+    <cellStyle name="20% - akcent 5 2 2" xfId="24" xr:uid="{E4071CBD-93AA-44FB-BF5A-EFA21D142234}"/>
+    <cellStyle name="20% - akcent 6 2" xfId="25" xr:uid="{24574086-8254-4C82-8AB9-B99AC7211778}"/>
+    <cellStyle name="20% - akcent 6 2 2" xfId="26" xr:uid="{28377D66-9BF5-427D-A5F5-D16B2185DE45}"/>
+    <cellStyle name="40% - Accent1 2" xfId="28" xr:uid="{D7FDD86E-E1B6-4A38-B42B-FDD0B4C5CA74}"/>
+    <cellStyle name="40% - Accent1 3" xfId="27" xr:uid="{0937BB44-9A07-4E88-98B4-8749AF8E21AB}"/>
+    <cellStyle name="40% - Accent2 2" xfId="30" xr:uid="{4EFE7E43-C195-4B2E-87A4-AF7FF13B9D01}"/>
+    <cellStyle name="40% - Accent2 3" xfId="29" xr:uid="{810F0D54-2F7A-4E05-836A-D7903A7B6BA0}"/>
+    <cellStyle name="40% - Accent3 2" xfId="32" xr:uid="{0085A43D-799C-46CF-8265-928F5B038FBA}"/>
+    <cellStyle name="40% - Accent3 3" xfId="31" xr:uid="{719529F0-462D-47CE-9289-8BF993C3B27F}"/>
+    <cellStyle name="40% - Accent4 2" xfId="34" xr:uid="{378C18DB-FB88-4AD2-B568-B8CC211B638A}"/>
+    <cellStyle name="40% - Accent4 3" xfId="33" xr:uid="{6E95D4EE-02B5-40A3-B214-F4F25BDAF825}"/>
+    <cellStyle name="40% - Accent5 2" xfId="36" xr:uid="{A7303DC2-439F-40B2-B1FE-B8DEE69367BF}"/>
+    <cellStyle name="40% - Accent5 3" xfId="35" xr:uid="{35A7CE82-4AB8-4D38-A13F-572F07122A33}"/>
+    <cellStyle name="40% - Accent6 2" xfId="38" xr:uid="{CFBF7CCF-A490-4C2A-BF53-2DE04D833564}"/>
+    <cellStyle name="40% - Accent6 3" xfId="37" xr:uid="{63CFA199-93AF-4EC8-85D7-B169D4186C28}"/>
+    <cellStyle name="40% - akcent 1 2" xfId="39" xr:uid="{5A9E01B2-FD87-44B1-B6E3-8F8AF9C6666D}"/>
+    <cellStyle name="40% - akcent 1 2 2" xfId="40" xr:uid="{58404A12-D13E-401E-809A-E1668BB3634E}"/>
+    <cellStyle name="40% - akcent 2 2" xfId="41" xr:uid="{CB744B03-5F6C-4C95-86ED-7E7E255EDAE3}"/>
+    <cellStyle name="40% - akcent 2 2 2" xfId="42" xr:uid="{EC798B90-0AE6-4366-9F52-B1082E9C0F73}"/>
+    <cellStyle name="40% - akcent 3 2" xfId="43" xr:uid="{7E6AD85E-D1BA-41D1-A50E-FEFBAC9EF24F}"/>
+    <cellStyle name="40% - akcent 3 2 2" xfId="44" xr:uid="{1ADB82A3-0ECD-4CE1-8344-E946CCC372F2}"/>
+    <cellStyle name="40% - akcent 4 2" xfId="45" xr:uid="{77836C5D-CDB2-456B-9188-226DAC5176A5}"/>
+    <cellStyle name="40% - akcent 4 2 2" xfId="46" xr:uid="{B771A656-B994-4D78-B089-78DE678E7478}"/>
+    <cellStyle name="40% - akcent 5 2" xfId="47" xr:uid="{79C09CA4-A346-4840-B7F3-87A55BD53F26}"/>
+    <cellStyle name="40% - akcent 5 2 2" xfId="48" xr:uid="{AF6B0A63-5CB7-4B17-821B-5C813310357F}"/>
+    <cellStyle name="40% - akcent 6 2" xfId="49" xr:uid="{B0AE8C97-CC88-46DC-8926-61F7A400B064}"/>
+    <cellStyle name="40% - akcent 6 2 2" xfId="50" xr:uid="{5F1BC8A3-A302-41DF-A5B5-471F0976E4B9}"/>
+    <cellStyle name="60% - Accent1 2" xfId="52" xr:uid="{E8ADCC7A-E41D-4716-AE4E-9408BCE8EF71}"/>
+    <cellStyle name="60% - Accent1 3" xfId="51" xr:uid="{CF8DCC70-6C5E-4769-B518-E6BD4041DDEE}"/>
+    <cellStyle name="60% - Accent2 2" xfId="54" xr:uid="{165223C6-77B8-4BAF-8412-1700CE7C9FEF}"/>
+    <cellStyle name="60% - Accent2 3" xfId="53" xr:uid="{6876EBE4-9DC1-49C1-888C-2B484A2CCA27}"/>
+    <cellStyle name="60% - Accent3 2" xfId="56" xr:uid="{9BB28F60-927F-4F7E-BA20-75E920692700}"/>
+    <cellStyle name="60% - Accent3 3" xfId="55" xr:uid="{5EDB3992-C793-4BA6-820C-4DF569E1B778}"/>
+    <cellStyle name="60% - Accent4 2" xfId="58" xr:uid="{59B81FDE-E10F-4F3F-BD0D-5F4DD2B22F83}"/>
+    <cellStyle name="60% - Accent4 3" xfId="57" xr:uid="{24BB9932-8E89-4B0D-81E2-EF7B67EEA6CB}"/>
+    <cellStyle name="60% - Accent5 2" xfId="60" xr:uid="{743EFE38-5FB4-4F48-BB61-5E4C741AB6DD}"/>
+    <cellStyle name="60% - Accent5 3" xfId="59" xr:uid="{95C55DF9-3818-4F38-9FE8-9C9A29B21601}"/>
+    <cellStyle name="60% - Accent6 2" xfId="62" xr:uid="{FDCDA837-6D1C-4F48-8655-64E9D3876A6F}"/>
+    <cellStyle name="60% - Accent6 3" xfId="61" xr:uid="{AE0AE42B-FDA7-4148-903E-120468C407D4}"/>
+    <cellStyle name="60% - akcent 1 2" xfId="63" xr:uid="{9BADA89F-49F8-4ED3-8B4B-55A9F3F79085}"/>
+    <cellStyle name="60% - akcent 1 2 2" xfId="64" xr:uid="{60F0038C-186C-40BF-9928-918064C4CBA1}"/>
+    <cellStyle name="60% - akcent 2 2" xfId="65" xr:uid="{3C9FC59E-8F35-4713-8AED-7023C01DB12F}"/>
+    <cellStyle name="60% - akcent 2 2 2" xfId="66" xr:uid="{CEDD3FD2-E541-49FF-99C3-85F3E7A9DDFC}"/>
+    <cellStyle name="60% - akcent 3 2" xfId="67" xr:uid="{04EA22E7-F543-4A75-BC83-7F136A02444F}"/>
+    <cellStyle name="60% - akcent 3 2 2" xfId="68" xr:uid="{76B88A35-9838-45B6-9073-BDFBF05C42D6}"/>
+    <cellStyle name="60% - akcent 4 2" xfId="69" xr:uid="{3AA70D1A-B924-495E-B1CA-46CB8EDDB4F5}"/>
+    <cellStyle name="60% - akcent 4 2 2" xfId="70" xr:uid="{123C751E-16A3-48D9-ACDD-799B6D116E6D}"/>
+    <cellStyle name="60% - akcent 5 2" xfId="71" xr:uid="{D4D4F2A9-407B-4825-AC02-259030F3462E}"/>
+    <cellStyle name="60% - akcent 5 2 2" xfId="72" xr:uid="{6D90F5F0-DE87-454F-B0F7-4EB7EF61234D}"/>
+    <cellStyle name="60% - akcent 6 2" xfId="73" xr:uid="{B792B233-AB85-498A-B39F-A75D41DC80D2}"/>
+    <cellStyle name="60% - akcent 6 2 2" xfId="74" xr:uid="{F0EE6721-847B-48E0-8E6E-813200489D4C}"/>
+    <cellStyle name="Accent1 - 60%" xfId="76" xr:uid="{2D2D12C8-BE30-416B-A858-82E7D32B16F0}"/>
+    <cellStyle name="Accent1 - 60% 2" xfId="77" xr:uid="{AF37F0D0-8C47-41FB-B743-FADDF6822A81}"/>
+    <cellStyle name="Accent1 2" xfId="78" xr:uid="{BC0B7533-9FC6-466C-A818-14FF47328EAC}"/>
+    <cellStyle name="Accent1 3" xfId="79" xr:uid="{0FFA131E-3DCF-410B-895E-6C004E7CC2B6}"/>
+    <cellStyle name="Accent1 4" xfId="80" xr:uid="{A45E9E63-4351-4965-ADE5-4AA665BFE2CD}"/>
+    <cellStyle name="Accent1 5" xfId="75" xr:uid="{44B05425-0C63-42B6-A2A7-E8F6AB942F20}"/>
+    <cellStyle name="Accent2 - 40%" xfId="82" xr:uid="{D4BE2A9B-7B08-4B8C-814E-8D181CD73900}"/>
+    <cellStyle name="Accent2 - 40% 2" xfId="83" xr:uid="{4072D1ED-4E1C-4784-836E-174CF3574A53}"/>
+    <cellStyle name="Accent2 2" xfId="84" xr:uid="{FA57B459-F84E-4D95-8CD2-E49F2DBECAD0}"/>
+    <cellStyle name="Accent2 2 2" xfId="85" xr:uid="{5BC5124A-3EAE-4B11-AC9F-496D1C29E014}"/>
+    <cellStyle name="Accent2 3" xfId="86" xr:uid="{7BF7FA16-A123-4361-83D4-E7065FCA23C9}"/>
+    <cellStyle name="Accent2 4" xfId="87" xr:uid="{EDD53CB1-0DCA-4AAE-A418-0C95464FFEA7}"/>
+    <cellStyle name="Accent2 5" xfId="88" xr:uid="{F10CC827-6526-465B-8B32-34AA15A1ACD6}"/>
+    <cellStyle name="Accent2 6" xfId="81" xr:uid="{9F3F7C1D-B938-4FEE-81DC-54945DFF3C0A}"/>
+    <cellStyle name="Accent3 - 40%" xfId="90" xr:uid="{1D0EAFAF-CF59-4984-BE6F-C77CB802724D}"/>
+    <cellStyle name="Accent3 - 40% 2" xfId="91" xr:uid="{40220983-A697-48F7-A6FD-3CBD590C9CB4}"/>
+    <cellStyle name="Accent3 2" xfId="92" xr:uid="{5BE432E1-3B09-4394-9F0C-061040C0F23D}"/>
+    <cellStyle name="Accent3 3" xfId="93" xr:uid="{8EC903AF-0597-428F-88B9-6895F4E6AB0E}"/>
+    <cellStyle name="Accent3 4" xfId="94" xr:uid="{E7C01402-B1C9-4F5B-8CBE-60B6F80BF101}"/>
+    <cellStyle name="Accent3 5" xfId="89" xr:uid="{648CFB0A-D0D9-4C81-A6AD-F26915C7FBF5}"/>
+    <cellStyle name="Accent4 2" xfId="96" xr:uid="{9C63CDEE-9F34-45B9-9600-5E0C5D662DFD}"/>
+    <cellStyle name="Accent4 3" xfId="95" xr:uid="{338473BA-D068-47A0-931B-07207564BCB3}"/>
+    <cellStyle name="Accent5 2" xfId="98" xr:uid="{B2EF40ED-6365-4BB4-854C-D9655446A96F}"/>
+    <cellStyle name="Accent5 2 2" xfId="99" xr:uid="{31C08FB5-C815-4AC4-B4FC-AB6BDFA7C804}"/>
+    <cellStyle name="Accent5 3" xfId="100" xr:uid="{543362DB-8695-4F32-99D4-C89010E1FE3E}"/>
+    <cellStyle name="Accent5 4" xfId="97" xr:uid="{813B543E-789F-4D47-AEB5-3B6597721536}"/>
+    <cellStyle name="Accent6 2" xfId="102" xr:uid="{8770453B-DF8D-4BE3-87F2-FB6CEA5E17DF}"/>
+    <cellStyle name="Accent6 3" xfId="101" xr:uid="{5157AB6A-489C-465C-848E-D2A2E7842E9B}"/>
+    <cellStyle name="Akcent 1 2" xfId="103" xr:uid="{D8F96D07-F949-4135-8819-97E5192E74FA}"/>
+    <cellStyle name="Akcent 1 2 2" xfId="104" xr:uid="{C78BA829-1E5D-48CC-B492-2C15CF11E527}"/>
+    <cellStyle name="Akcent 2 2" xfId="105" xr:uid="{90A0D5A7-C341-4507-B7B4-96E096E69DAA}"/>
+    <cellStyle name="Akcent 2 2 2" xfId="106" xr:uid="{7C8ED039-E1D8-430D-ACB8-97AFF613B89A}"/>
+    <cellStyle name="Akcent 3 2" xfId="107" xr:uid="{7554E563-D81A-4EB6-A497-519A6BCC5400}"/>
+    <cellStyle name="Akcent 3 2 2" xfId="108" xr:uid="{A2164041-D6E5-4A47-A2FD-DAE1FCEEB5EA}"/>
+    <cellStyle name="Akcent 4 2" xfId="109" xr:uid="{8B8A0339-18DF-4170-ADC5-884D7278B64F}"/>
+    <cellStyle name="Akcent 4 2 2" xfId="110" xr:uid="{101925E7-A551-4785-B1BB-2D64DA2CDEEF}"/>
+    <cellStyle name="Akcent 5 2" xfId="111" xr:uid="{F1175DD8-CA52-4896-BD42-938DCC21D1DD}"/>
+    <cellStyle name="Akcent 5 2 2" xfId="112" xr:uid="{6924DCEA-9BA7-43C3-92A1-C581804FC4C9}"/>
+    <cellStyle name="Akcent 6 2" xfId="113" xr:uid="{B5A47E57-47F6-4515-8B75-5030DE84E20F}"/>
+    <cellStyle name="Akcent 6 2 2" xfId="114" xr:uid="{9F4971DE-C53D-464E-9FA5-C2CC7FBD42F2}"/>
+    <cellStyle name="Bad 2" xfId="116" xr:uid="{88969D6C-685E-454D-AB7C-0593F45BED48}"/>
+    <cellStyle name="Bad 2 2" xfId="117" xr:uid="{DC51F273-E5ED-490D-AEEA-66157137D74E}"/>
+    <cellStyle name="Bad 3" xfId="118" xr:uid="{417FFABE-8313-4F37-AB11-7930BF5AFE05}"/>
+    <cellStyle name="Bad 4" xfId="115" xr:uid="{AC40902A-BCEC-441F-A466-47FD35EDB5FE}"/>
+    <cellStyle name="Calculation 2" xfId="120" xr:uid="{6C6AE05B-8DE6-46B5-B70C-B4E3D09475A2}"/>
+    <cellStyle name="Calculation 2 2" xfId="121" xr:uid="{10B30718-500B-43B8-B9D4-CA4394E5CB23}"/>
+    <cellStyle name="Calculation 3" xfId="122" xr:uid="{3BF923D5-AB2B-4613-B9A5-001E2C395742}"/>
+    <cellStyle name="Calculation 4" xfId="119" xr:uid="{B80080FD-E69C-4321-AC04-BF1B93C5995A}"/>
+    <cellStyle name="Check Cell 2" xfId="124" xr:uid="{385AFCC6-A71D-445D-BECE-2C599FB60223}"/>
+    <cellStyle name="Check Cell 2 2" xfId="125" xr:uid="{A59F84DF-BBFC-4DBD-980D-4354C5039619}"/>
+    <cellStyle name="Check Cell 3" xfId="126" xr:uid="{4C5C991D-B241-4CB4-80C3-99FE7F091FE0}"/>
+    <cellStyle name="Check Cell 4" xfId="123" xr:uid="{4DABEE4D-0E90-452A-A717-7DC0B196F15F}"/>
+    <cellStyle name="Comma 2" xfId="127" xr:uid="{B3F37AFC-7CFD-4B96-82C4-B22D4C8084C1}"/>
+    <cellStyle name="Comma 2 2" xfId="128" xr:uid="{9C9E478A-83EB-4D1A-A1A9-63238EF3C9D6}"/>
+    <cellStyle name="Comma 2 2 2" xfId="129" xr:uid="{340FC0ED-E5F3-4262-83F8-A29BAD066A7C}"/>
+    <cellStyle name="Comma 2 3" xfId="130" xr:uid="{759A0E32-12D1-4A3D-A274-8A385DBF298F}"/>
+    <cellStyle name="Comma 3" xfId="131" xr:uid="{42483BCE-5FA0-4087-9223-9E2B5A53858E}"/>
+    <cellStyle name="Comma 3 2" xfId="132" xr:uid="{DEC02365-0FC2-426C-A3E1-4EA0FD4D7907}"/>
+    <cellStyle name="Currency 2" xfId="133" xr:uid="{7A0F6411-7747-4939-A005-86325A9F30F9}"/>
+    <cellStyle name="Currency 2 2" xfId="134" xr:uid="{5511F6EB-B325-4CE7-B081-1952DF2C35D7}"/>
+    <cellStyle name="Currency 3" xfId="135" xr:uid="{2B029F78-74C5-47F5-A336-26F8F7EAE37D}"/>
+    <cellStyle name="Currency 3 2" xfId="136" xr:uid="{09854623-E55E-485E-BD96-B60BBD5E2096}"/>
+    <cellStyle name="Currency 4" xfId="137" xr:uid="{9035DB8A-6A00-4C51-814D-A3F41419D16E}"/>
+    <cellStyle name="Currency 4 2" xfId="138" xr:uid="{FDA2C4F7-C410-45CF-9774-5C6C85289B8E}"/>
+    <cellStyle name="Dane wejściowe 2" xfId="139" xr:uid="{1DEB3477-4287-4299-83E0-3901E7ABF955}"/>
+    <cellStyle name="Dane wejściowe 2 2" xfId="140" xr:uid="{EFFB6A12-CD88-4FAE-9153-78BD473FBDD0}"/>
+    <cellStyle name="Dane wyjściowe 2" xfId="141" xr:uid="{B82E80A9-3AF2-4FC3-9EA4-C00DCF4B47D7}"/>
+    <cellStyle name="Dane wyjściowe 2 2" xfId="142" xr:uid="{9630E853-25B7-4620-95EC-76E006AC9000}"/>
+    <cellStyle name="Dezimal_A934B94" xfId="143" xr:uid="{1C329B67-36DF-4D4D-84EF-A6C68657FCD1}"/>
+    <cellStyle name="Dobre 2" xfId="144" xr:uid="{8551AB36-1632-4C91-A7A1-8429E0F80323}"/>
+    <cellStyle name="Dobre 2 2" xfId="145" xr:uid="{E660EA47-C822-41A4-A8F2-74B65350222B}"/>
+    <cellStyle name="Dziesiętny 10" xfId="146" xr:uid="{7A6074F1-2B8E-45EE-BF8F-32C0FD79E328}"/>
+    <cellStyle name="Dziesiętny 10 2" xfId="147" xr:uid="{E57D96F1-78BA-4956-AD1F-203C64D8C193}"/>
+    <cellStyle name="Dziesiętny 11" xfId="148" xr:uid="{BDA40F01-A64B-4B28-A106-354B19413CD7}"/>
+    <cellStyle name="Dziesiętny 11 2" xfId="149" xr:uid="{C6DF5D88-BE1F-497B-953F-4D5254E12ECA}"/>
+    <cellStyle name="Dziesiętny 12" xfId="150" xr:uid="{538DE646-C274-409B-9A83-7E19F6F070F0}"/>
+    <cellStyle name="Dziesiętny 12 2" xfId="151" xr:uid="{76DF919D-F5F8-4A51-8518-D87EC6ED4CCE}"/>
+    <cellStyle name="Dziesiętny 13" xfId="152" xr:uid="{6C6DA553-B2BC-48EE-8EEB-A69150858706}"/>
+    <cellStyle name="Dziesiętny 13 2" xfId="153" xr:uid="{E007677D-3076-45AB-BDC4-4372655F2C4C}"/>
+    <cellStyle name="Dziesiętny 14" xfId="154" xr:uid="{32FE5357-F318-4824-B62C-0C7CA4B9A0DC}"/>
+    <cellStyle name="Dziesiętny 14 2" xfId="155" xr:uid="{A59017F2-6B56-462E-A3A2-08A876FAD9BB}"/>
+    <cellStyle name="Dziesiętny 15" xfId="156" xr:uid="{C0430EFD-6AFF-4494-82AB-E6D3198CC3D7}"/>
+    <cellStyle name="Dziesiętny 2" xfId="157" xr:uid="{4DC2127C-7B14-48BA-A35C-D616EC9D922E}"/>
+    <cellStyle name="Dziesiętny 2 2" xfId="158" xr:uid="{78F602F0-AAD9-4A9F-AA1F-D25DD3CE44AC}"/>
+    <cellStyle name="Dziesiętny 2 2 2" xfId="159" xr:uid="{5D7DDB62-8311-4745-9E19-A36588810163}"/>
+    <cellStyle name="Dziesiętny 2 3" xfId="160" xr:uid="{5E78BAC3-6021-44BA-82D7-F36724D404B7}"/>
+    <cellStyle name="Dziesiętny 2 3 2" xfId="161" xr:uid="{E04792B4-DAB9-462E-8D56-1A748B65971A}"/>
+    <cellStyle name="Dziesiętny 2 4" xfId="162" xr:uid="{55FDD79D-EAB6-44A4-8742-9CDD819F2ACA}"/>
+    <cellStyle name="Dziesiętny 3" xfId="163" xr:uid="{7B5B3974-CAA4-40B3-8807-1F1D2216FB7F}"/>
+    <cellStyle name="Dziesiętny 3 2" xfId="164" xr:uid="{D98AEC4C-1D0C-4978-B6B2-A194E02DE3B2}"/>
+    <cellStyle name="Dziesiętny 3 2 2" xfId="165" xr:uid="{026081A4-9422-4C8E-869E-726F6A971C68}"/>
+    <cellStyle name="Dziesiętny 3 3" xfId="166" xr:uid="{0174CF5E-D80D-4C69-93C3-1509DB54D16C}"/>
+    <cellStyle name="Dziesiętny 3 3 2" xfId="167" xr:uid="{DBEE91DD-283B-4F96-A115-DEE0F1646B63}"/>
+    <cellStyle name="Dziesiętny 3 4" xfId="168" xr:uid="{0C91481D-6489-46D9-B7EB-72BB0ABE43A4}"/>
+    <cellStyle name="Dziesiętny 3 5" xfId="169" xr:uid="{CCA73F6D-723D-49BB-BD27-4BEBBCC0E32D}"/>
+    <cellStyle name="Dziesiętny 3 6" xfId="170" xr:uid="{9A842AD9-CF95-485F-991F-948AAFB9E0B2}"/>
+    <cellStyle name="Dziesiętny 4" xfId="171" xr:uid="{D44306D0-2928-49D9-BDEF-E0EF07CFB5CF}"/>
+    <cellStyle name="Dziesiętny 4 2" xfId="172" xr:uid="{3D5A8462-9A81-49A1-94B2-A471FDBC7E2B}"/>
+    <cellStyle name="Dziesiętny 4 2 2" xfId="173" xr:uid="{F0B76355-75A3-4A6D-B6F0-DB6855F9E46D}"/>
+    <cellStyle name="Dziesiętny 4 3" xfId="174" xr:uid="{7DFD47F0-BBCC-472D-9CF2-0A4A5217586E}"/>
+    <cellStyle name="Dziesiętny 5" xfId="175" xr:uid="{A47E88A8-9F90-4A4E-91E3-2AB5260D0003}"/>
+    <cellStyle name="Dziesiętny 5 2" xfId="176" xr:uid="{F81B302F-B88E-43BB-9960-2E92D54EA489}"/>
+    <cellStyle name="Dziesiętny 6" xfId="177" xr:uid="{962A0B9C-F2B2-4AD3-8F3B-67C12B9BE8FC}"/>
+    <cellStyle name="Dziesiętny 6 2" xfId="178" xr:uid="{55F641FB-7122-466F-8FFB-B5E67400E056}"/>
+    <cellStyle name="Dziesiętny 7" xfId="179" xr:uid="{D809DF2E-3736-4376-A5F5-22E706A8414A}"/>
+    <cellStyle name="Dziesiętny 7 2" xfId="180" xr:uid="{EC85E437-6327-46D6-BC26-6F84987FCA6F}"/>
+    <cellStyle name="Dziesiętny 8" xfId="181" xr:uid="{C158B66E-BFBB-49F8-BADD-8918CC56E688}"/>
+    <cellStyle name="Dziesiętny 8 2" xfId="182" xr:uid="{4353BD5F-6A43-486F-89EA-E63B24E0100F}"/>
+    <cellStyle name="Dziesiętny 9" xfId="183" xr:uid="{3DF8138E-996E-49FC-B64C-787E0DEEE5E5}"/>
+    <cellStyle name="Dziesiętny 9 2" xfId="184" xr:uid="{DD465960-2F85-48ED-8470-0964C6AF1EBC}"/>
+    <cellStyle name="Dziesiętny 9 2 2" xfId="185" xr:uid="{48940033-B6F0-4710-965A-4DE61CD21595}"/>
+    <cellStyle name="Dziesiętny 9 3" xfId="186" xr:uid="{CF7FCFF1-9327-4FFE-9983-0F6075724A4C}"/>
+    <cellStyle name="Euro" xfId="187" xr:uid="{25E6ABDE-0BE9-45A8-B6D8-BFEDE79FE0FC}"/>
+    <cellStyle name="Euro 2" xfId="188" xr:uid="{06AC4C38-99A7-414F-B901-9A2B0BA1CF30}"/>
+    <cellStyle name="Euro 2 2" xfId="189" xr:uid="{B9D9DEA1-67BF-4647-82B0-E5F50DCE8E4F}"/>
+    <cellStyle name="Euro 3" xfId="190" xr:uid="{BE54887F-77A7-45F7-A15F-8A1176B27959}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="191" xr:uid="{BB1282EB-8B31-4D8F-A249-4F9391C26308}"/>
+    <cellStyle name="Excel Built-in Normal 1" xfId="192" xr:uid="{1424CF2E-147C-4B7B-B841-70ECC373601B}"/>
+    <cellStyle name="Excel Built-in Normal 2" xfId="193" xr:uid="{E5037B73-1830-4C8C-A96C-FE82573A4C4C}"/>
+    <cellStyle name="Excel Built-in Normal 2 2" xfId="194" xr:uid="{C8249C28-C1D6-4158-9B31-57490CF89BD6}"/>
+    <cellStyle name="Excel Built-in Normal 2 3" xfId="195" xr:uid="{57CE645C-51A5-4C3F-B27A-40A69D58EBED}"/>
+    <cellStyle name="Excel Built-in Normal 3" xfId="196" xr:uid="{3D4E85C6-0040-4E2F-88CE-F5E61F24F6E3}"/>
+    <cellStyle name="Excel Built-in Normal 4" xfId="197" xr:uid="{7455F231-1693-4E89-8574-B23212ABD807}"/>
+    <cellStyle name="Explanatory Text 2" xfId="199" xr:uid="{9402F27A-DC7F-4051-9E76-B50D16196D09}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="200" xr:uid="{FDA4B24B-9EA1-4A30-9E59-030E254F5E29}"/>
+    <cellStyle name="Explanatory Text 3" xfId="198" xr:uid="{7C54C3B9-7B19-4159-B8F8-619836631F4A}"/>
+    <cellStyle name="Good 2" xfId="202" xr:uid="{A5EF1966-CF42-4480-8351-25D66217670E}"/>
+    <cellStyle name="Good 2 2" xfId="203" xr:uid="{78980563-E85D-4859-9EAA-F83C5B7B36A0}"/>
+    <cellStyle name="Good 3" xfId="204" xr:uid="{740182E9-2D5B-4A98-B2FA-BAA1DDDD7862}"/>
+    <cellStyle name="Good 4" xfId="201" xr:uid="{56E3E670-5492-4202-B756-4D9FC8CCBA60}"/>
+    <cellStyle name="Heading" xfId="205" xr:uid="{8358495D-EB1E-425A-8A09-95BA4BB8DC71}"/>
+    <cellStyle name="Heading 1 2" xfId="206" xr:uid="{2F99E124-07C4-4A44-9451-A709CA90FA81}"/>
+    <cellStyle name="Heading 2 2" xfId="207" xr:uid="{93AFCEE9-3C96-4055-8E33-42D659A52BD5}"/>
+    <cellStyle name="Heading 3 2" xfId="209" xr:uid="{BE1D0C49-CAE4-459C-848A-DE0C86DC520F}"/>
+    <cellStyle name="Heading 3 3" xfId="208" xr:uid="{CC104782-3EE8-4B92-A7B8-7D6843C7D387}"/>
+    <cellStyle name="Heading 4 2" xfId="210" xr:uid="{3C3DDD9C-779C-4EDA-8DCE-6DE8E1D827D8}"/>
+    <cellStyle name="Heading1" xfId="211" xr:uid="{47A3244A-11CF-4C8D-AE4D-7C29D9438EC5}"/>
+    <cellStyle name="Heading1 1" xfId="212" xr:uid="{8FF671B6-9370-4363-9C78-34B7F860E519}"/>
+    <cellStyle name="Heading1 2" xfId="213" xr:uid="{CA54ADC1-9061-48A1-AD55-E602F703B8D9}"/>
+    <cellStyle name="Heading1 3" xfId="214" xr:uid="{18E85DDD-C967-4F00-A695-A52C9050EB4B}"/>
+    <cellStyle name="Heading1 4" xfId="215" xr:uid="{E31B8284-301D-449E-82D9-45911A369AD5}"/>
+    <cellStyle name="Hiperłącze 2" xfId="216" xr:uid="{039C2662-426C-4872-934C-B8CB814EA315}"/>
+    <cellStyle name="Hiperłącze 2 2" xfId="217" xr:uid="{4D0508EF-33FC-4025-AD1B-CA8622687815}"/>
+    <cellStyle name="Hiperłącze 2 2 2" xfId="218" xr:uid="{E48F9979-A11E-4DCC-94CF-2EB7A79028E8}"/>
+    <cellStyle name="Hiperłącze 2 3" xfId="219" xr:uid="{72F5A6A6-22A5-46D5-AF01-6F335DBB600C}"/>
+    <cellStyle name="Hiperłącze 2 3 2" xfId="220" xr:uid="{8215E6F4-8230-41D8-A69D-B3C710494ECD}"/>
+    <cellStyle name="Hiperłącze 2 4" xfId="221" xr:uid="{CE0DA88A-0B3B-4EA6-938C-FFCFD853B859}"/>
+    <cellStyle name="Hiperłącze 3" xfId="222" xr:uid="{9AEB8FA1-29C2-4C5A-9F9B-AF986AD5E789}"/>
+    <cellStyle name="Hiperłącze 3 2" xfId="223" xr:uid="{7020D705-C850-458D-951C-7B5F7A952FED}"/>
+    <cellStyle name="Hiperłącze 4" xfId="224" xr:uid="{5391190C-79C5-4DF8-ADCF-0056B8AACF3B}"/>
+    <cellStyle name="Hyperlink 2" xfId="225" xr:uid="{FBE36CC4-02E5-4D79-B00D-F94976E6B075}"/>
+    <cellStyle name="Hyperlink 2 2" xfId="226" xr:uid="{07BF25B3-2991-4DFE-B161-36A03CC18358}"/>
+    <cellStyle name="Input 2" xfId="228" xr:uid="{1BDFF06B-58ED-44C2-84B2-80AD2797D11B}"/>
+    <cellStyle name="Input 2 2" xfId="229" xr:uid="{2642EF79-213A-48AB-A31E-F2B4AA8BEC34}"/>
+    <cellStyle name="Input 3" xfId="230" xr:uid="{4B07ADFE-FE91-4E80-97F0-F824A3CB76EB}"/>
+    <cellStyle name="Input 4" xfId="227" xr:uid="{4115EEBB-B499-4252-AF72-A39CEE454D9F}"/>
+    <cellStyle name="Komórka połączona 2" xfId="231" xr:uid="{7295442A-0EB0-4659-87AB-6D304F36C588}"/>
+    <cellStyle name="Komórka połączona 2 2" xfId="232" xr:uid="{36CD3FFA-B29F-483D-80CF-8F7629CBA312}"/>
+    <cellStyle name="Komórka zaznaczona 2" xfId="233" xr:uid="{C6709391-009A-46E9-8768-4E7192109C1C}"/>
+    <cellStyle name="Komórka zaznaczona 2 2" xfId="234" xr:uid="{F7E18A92-6C9D-438C-982E-9C64B530954F}"/>
+    <cellStyle name="Linked Cell 2" xfId="235" xr:uid="{E436491F-0414-48E1-AB9A-20F7659FA58E}"/>
+    <cellStyle name="Nagłówek 1 2" xfId="236" xr:uid="{B776EDF7-E647-4467-A852-65945E58A99B}"/>
+    <cellStyle name="Nagłówek 1 2 2" xfId="237" xr:uid="{23E365B8-961A-4A8B-B708-D049F1CEDB37}"/>
+    <cellStyle name="Nagłówek 2 2" xfId="238" xr:uid="{66CA1DB8-9D1B-4B3B-A392-B81A742151A1}"/>
+    <cellStyle name="Nagłówek 2 2 2" xfId="239" xr:uid="{F6619CBA-8BCA-411C-97C8-D15D2E9C46D0}"/>
+    <cellStyle name="Nagłówek 3 2" xfId="240" xr:uid="{07421E1A-F56E-4ABF-925F-4B68D2E3A761}"/>
+    <cellStyle name="Nagłówek 3 2 2" xfId="241" xr:uid="{F31310B7-5D97-48EA-9C35-2B2B991E529C}"/>
+    <cellStyle name="Nagłówek 4 2" xfId="242" xr:uid="{019D7BA4-44D6-4132-A9FF-7E8D9F94F53B}"/>
+    <cellStyle name="Nagłówek 4 2 2" xfId="243" xr:uid="{4767CE1A-35B2-4F20-A1B2-7B7BD20D638C}"/>
+    <cellStyle name="Neutral 2" xfId="245" xr:uid="{7CC199D1-F311-42A4-976C-4C8FC20443E0}"/>
+    <cellStyle name="Neutral 2 2" xfId="246" xr:uid="{4B9944CE-9466-4B8B-8F42-92D5F2ABF5BE}"/>
+    <cellStyle name="Neutral 3" xfId="247" xr:uid="{61434C91-C095-4F61-A0A3-FBD53599A435}"/>
+    <cellStyle name="Neutral 4" xfId="244" xr:uid="{B3C0C93D-D13B-4AF7-8B6F-A3E2A6411474}"/>
+    <cellStyle name="Neutralne 2" xfId="248" xr:uid="{FF594D66-6B6D-4A40-9BA5-EF522083B914}"/>
+    <cellStyle name="Neutralne 2 2" xfId="249" xr:uid="{8F60A8BC-5ABB-49F7-A2A7-EECE2D9E4CFC}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="250" xr:uid="{A62B5E2D-14F1-4854-9DB1-3AFBEA87F151}"/>
+    <cellStyle name="Normal 2 2" xfId="251" xr:uid="{2001DF21-F5AC-4682-8674-2E8FBA5B4F97}"/>
+    <cellStyle name="Normal 2 2 2" xfId="252" xr:uid="{9A89AE2A-6194-4A88-8352-CF0BD1D28584}"/>
+    <cellStyle name="Normal 2 3" xfId="253" xr:uid="{97D21FD6-36EE-4F45-8299-09B204178021}"/>
+    <cellStyle name="Normal 2 4" xfId="254" xr:uid="{AC1E1533-412D-4A94-8438-F8567532FB75}"/>
+    <cellStyle name="Normal 3" xfId="255" xr:uid="{07A78BA2-4839-4227-A720-4B2B8072C85A}"/>
+    <cellStyle name="Normal 3 2" xfId="256" xr:uid="{33E3A45E-BD0C-4241-8479-687B7EF95B22}"/>
+    <cellStyle name="Normal 4" xfId="257" xr:uid="{34FD2E56-04B6-4909-A2E8-4E2C676B4153}"/>
+    <cellStyle name="Normal 4 2" xfId="258" xr:uid="{FB16F68E-02E1-4F7A-A085-019FE4BCE73E}"/>
+    <cellStyle name="Normal 5" xfId="259" xr:uid="{2080FC60-AABE-4DB0-B945-F45FD7133B6F}"/>
+    <cellStyle name="Normal 5 2" xfId="260" xr:uid="{50D5D63D-99FF-41CB-ABEA-C51D81CA91F5}"/>
+    <cellStyle name="Normal 6" xfId="261" xr:uid="{1B3C1651-8AA3-4A11-BFAA-27524968A2EA}"/>
+    <cellStyle name="Normal 6 2" xfId="262" xr:uid="{A77A76A1-529E-4CC4-8BC8-274C28717D6A}"/>
+    <cellStyle name="Normal 7" xfId="263" xr:uid="{B7DC8060-5208-47A8-A1DD-C6B08A2C2429}"/>
+    <cellStyle name="Normal 7 2" xfId="264" xr:uid="{1D7EC677-A783-4C18-BBDD-76CDA67A10E1}"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{CA400A76-E9CD-4261-B24C-29D0F4AA190E}"/>
+    <cellStyle name="Normale_FL_Imm_Part_IC25" xfId="265" xr:uid="{8FE960D7-0621-43FA-838B-4C24A5913F77}"/>
+    <cellStyle name="Normalny 10" xfId="266" xr:uid="{77D3128B-6A6F-4302-968F-BA6FC3E657D5}"/>
+    <cellStyle name="Normalny 10 2" xfId="267" xr:uid="{6855EE7B-09AC-4D88-8380-DFFAAA267FE5}"/>
+    <cellStyle name="Normalny 11" xfId="268" xr:uid="{4AAB102A-C518-4D61-AA9E-79CF012E8037}"/>
+    <cellStyle name="Normalny 11 2" xfId="269" xr:uid="{23CAA67E-D72A-422D-9A56-A2FBC9390613}"/>
+    <cellStyle name="Normalny 12" xfId="270" xr:uid="{A9F26A52-E737-4B89-BC75-6B847B92A746}"/>
+    <cellStyle name="Normalny 12 2" xfId="271" xr:uid="{BA45D60A-5D69-458F-98B9-44F897B01A12}"/>
+    <cellStyle name="Normalny 13" xfId="272" xr:uid="{9D8B8535-7857-414A-AA4A-3FA8DB45A84F}"/>
+    <cellStyle name="Normalny 13 2" xfId="273" xr:uid="{D1BF4C75-2C00-428A-B8A6-95AB83CE00CD}"/>
+    <cellStyle name="Normalny 14" xfId="274" xr:uid="{56D9DDA0-FFE9-4298-920C-D83FB3A19FD5}"/>
+    <cellStyle name="Normalny 14 2" xfId="275" xr:uid="{A7B22ED4-23B4-46F4-9E0D-4231DC8A037B}"/>
+    <cellStyle name="Normalny 15" xfId="276" xr:uid="{7139AC68-C026-4281-90E4-FEA551CBE9FE}"/>
+    <cellStyle name="Normalny 2" xfId="277" xr:uid="{A144C9ED-3980-47E8-9585-83909D665569}"/>
+    <cellStyle name="Normalny 2 10" xfId="278" xr:uid="{22CC476F-0D14-4F0E-8E25-94441878AE61}"/>
+    <cellStyle name="Normalny 2 2" xfId="279" xr:uid="{3E9FC4B2-809A-477B-A3C7-AD9F523F5B57}"/>
+    <cellStyle name="Normalny 2 2 2" xfId="280" xr:uid="{04578744-9F38-4B6E-8785-42F248C42329}"/>
+    <cellStyle name="Normalny 2 2 3" xfId="281" xr:uid="{94DB7278-11C2-412D-B77C-26A4AB7FB4C7}"/>
+    <cellStyle name="Normalny 2 22" xfId="282" xr:uid="{EF182474-4FFA-4988-8E4B-11D50F5C8967}"/>
+    <cellStyle name="Normalny 2 3" xfId="283" xr:uid="{835DE85E-68AC-4F9B-AD8C-D66B81C9A764}"/>
+    <cellStyle name="Normalny 2 3 2" xfId="284" xr:uid="{7E7863AF-06D0-4A0C-B9D1-8A6EA2428FB6}"/>
+    <cellStyle name="Normalny 2 3 3" xfId="285" xr:uid="{3EDF2323-B92F-4FCF-B2B8-A0EC4CA115CB}"/>
+    <cellStyle name="Normalny 2 4" xfId="286" xr:uid="{EE962301-9A40-4D10-AD75-487B591BA9E1}"/>
+    <cellStyle name="Normalny 2 5" xfId="287" xr:uid="{DAF5EFAE-0B33-48BA-BDB1-1D8392322E91}"/>
+    <cellStyle name="Normalny 2 5 2" xfId="288" xr:uid="{7AA8FF6F-8CA2-45EF-98E6-5C5D1C7742AB}"/>
+    <cellStyle name="Normalny 2 6" xfId="289" xr:uid="{3FBB554C-DD96-4A51-A716-7641D7B90F41}"/>
+    <cellStyle name="Normalny 2 6 2" xfId="290" xr:uid="{66607E61-1990-4128-87D5-A625F043E033}"/>
+    <cellStyle name="Normalny 2 7" xfId="291" xr:uid="{EC6757E6-1A7B-4C52-8598-C96AB3529F1F}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{0F99FE85-7C64-4599-8824-1EA9141CC4B2}"/>
+    <cellStyle name="Normalny 3 2" xfId="292" xr:uid="{B39DE13F-1242-4389-A211-A77125BF3292}"/>
+    <cellStyle name="Normalny 3 3" xfId="293" xr:uid="{53D10FDC-B3B6-43AF-A5FC-892803C035F2}"/>
+    <cellStyle name="Normalny 3 3 2" xfId="294" xr:uid="{EBBAC779-1525-4CC3-B2FD-F95C6756132F}"/>
+    <cellStyle name="Normalny 3 3 2 2" xfId="295" xr:uid="{ABCC818C-0447-490A-AD30-FFB1A8958C53}"/>
+    <cellStyle name="Normalny 3 3 3" xfId="296" xr:uid="{2DD90E77-081D-4015-8AAA-22DF3355C701}"/>
+    <cellStyle name="Normalny 3 4" xfId="297" xr:uid="{5CEFEF89-2D33-40BA-B332-300197931B7C}"/>
+    <cellStyle name="Normalny 3 4 2" xfId="298" xr:uid="{6ACF7980-44E9-45DD-A6CF-858AA0021D81}"/>
+    <cellStyle name="Normalny 3 4 2 2" xfId="299" xr:uid="{101CCF95-C69F-4520-8E26-91B045EA76A9}"/>
+    <cellStyle name="Normalny 3 4 3" xfId="300" xr:uid="{07A60F62-F1BD-4E9F-A75F-B63B6103CC05}"/>
+    <cellStyle name="Normalny 3 46" xfId="301" xr:uid="{58FEEE1B-9CB8-4322-AFBE-1ADA7A8FED0B}"/>
+    <cellStyle name="Normalny 3 5" xfId="302" xr:uid="{736174CA-02AC-4491-A5DA-79AA92A6712D}"/>
+    <cellStyle name="Normalny 4" xfId="303" xr:uid="{6B9B92F3-E7C4-477F-899B-626C8C71681C}"/>
+    <cellStyle name="Normalny 4 2" xfId="304" xr:uid="{B2A23B34-85D0-4C04-B275-5516FE2FDC24}"/>
+    <cellStyle name="Normalny 4 2 2" xfId="305" xr:uid="{15C183E1-C008-4C55-9C4E-5975751E7434}"/>
+    <cellStyle name="Normalny 4 3" xfId="306" xr:uid="{D5F8383D-DAEF-41FC-8F6C-F69192B7AFDF}"/>
+    <cellStyle name="Normalny 4 3 2" xfId="307" xr:uid="{DC7B8623-8A41-4A9F-A113-51E5C6825F48}"/>
+    <cellStyle name="Normalny 4 4" xfId="308" xr:uid="{A2B2F22E-2FCD-4517-B092-8862689D7FCB}"/>
+    <cellStyle name="Normalny 4 4 2" xfId="309" xr:uid="{3248FB6E-FAC2-4940-9094-A4934A50515C}"/>
+    <cellStyle name="Normalny 4 5" xfId="310" xr:uid="{4D7EF921-0839-400B-8812-93751F60090B}"/>
+    <cellStyle name="Normalny 4 6" xfId="417" xr:uid="{6829E68B-BDB0-4538-B339-ED947BF82067}"/>
+    <cellStyle name="Normalny 5" xfId="311" xr:uid="{33E348C3-8BFD-43C7-8E7B-B5A10DE5E95D}"/>
+    <cellStyle name="Normalny 5 2" xfId="312" xr:uid="{1A06902A-7A43-49EC-B2E5-3BF6C50FE928}"/>
+    <cellStyle name="Normalny 6" xfId="313" xr:uid="{A9CCF675-163D-4F3C-B5EF-3A82A71E641F}"/>
+    <cellStyle name="Normalny 6 2" xfId="314" xr:uid="{BA5A601A-CFE1-478D-AB0D-180881E8D13C}"/>
+    <cellStyle name="Normalny 6 2 2" xfId="315" xr:uid="{7E77FA42-9869-4356-8DAE-9D50DD687910}"/>
+    <cellStyle name="Normalny 6 2 2 2" xfId="316" xr:uid="{FA9DDFE7-14E0-41A6-B031-5C8FFC64C937}"/>
+    <cellStyle name="Normalny 6 3" xfId="317" xr:uid="{6029E4C2-542C-4B6C-B535-3F3561E36AB7}"/>
+    <cellStyle name="Normalny 6 3 2" xfId="318" xr:uid="{1205504C-D691-47F2-8073-A7ED58173598}"/>
+    <cellStyle name="Normalny 6 4" xfId="319" xr:uid="{62D9A534-C79F-42CE-A9F2-497CE6C9C837}"/>
+    <cellStyle name="Normalny 7" xfId="320" xr:uid="{F3B815AA-F180-4AAD-BDEE-C0727650B32E}"/>
+    <cellStyle name="Normalny 7 2" xfId="321" xr:uid="{991AD9F5-D7C7-4C3E-809A-F2040FEC9D67}"/>
+    <cellStyle name="Normalny 7 2 2" xfId="322" xr:uid="{39068E70-9E4B-4597-8DAD-04216D140860}"/>
+    <cellStyle name="Normalny 8" xfId="323" xr:uid="{07F62DED-DFEE-4706-8E2C-A58C926EFFBD}"/>
+    <cellStyle name="Normalny 9" xfId="324" xr:uid="{9F423F8A-4EAA-4AD8-B0BD-F093D23010F1}"/>
+    <cellStyle name="Normalny 9 2" xfId="325" xr:uid="{42758398-B27C-4E02-B36F-4A82AF7A4938}"/>
+    <cellStyle name="Normalny 9 2 2" xfId="326" xr:uid="{18BD1F66-D5C0-412C-86F9-33C663CE1559}"/>
+    <cellStyle name="Normalny 9 3" xfId="327" xr:uid="{10183CA1-FD02-4275-A979-A0E6E1C212AC}"/>
+    <cellStyle name="Note 2" xfId="329" xr:uid="{12331347-9758-4606-A8D8-FDD759E018F8}"/>
+    <cellStyle name="Note 2 2" xfId="330" xr:uid="{1B9EAD27-44BA-4FA9-A1A9-ED758B6B2C9A}"/>
+    <cellStyle name="Note 3" xfId="331" xr:uid="{0B05A799-6F7C-4F10-9FA3-3DDB26DD6BBE}"/>
+    <cellStyle name="Note 4" xfId="328" xr:uid="{622365A7-E5F5-4C28-9501-B9AEEFB10D17}"/>
+    <cellStyle name="Obliczenia 2" xfId="332" xr:uid="{334056C8-26EF-4ADE-8EA2-8B9C7A033555}"/>
+    <cellStyle name="Obliczenia 2 2" xfId="333" xr:uid="{38329078-707E-4046-B24B-C2A6A58A4619}"/>
+    <cellStyle name="Output 2" xfId="335" xr:uid="{08A38E0C-BBC3-4B58-9AAF-4DD563960726}"/>
+    <cellStyle name="Output 2 2" xfId="336" xr:uid="{F099EC46-5333-4D47-929E-1E8BEFBC545A}"/>
+    <cellStyle name="Output 3" xfId="337" xr:uid="{D2D45D21-1D45-4B22-B274-017E4164BAF0}"/>
+    <cellStyle name="Output 4" xfId="334" xr:uid="{87FAA5C8-746C-4DC1-8263-90A739F0DE39}"/>
+    <cellStyle name="Percent 2" xfId="338" xr:uid="{5F091563-4CB2-4F07-BAED-0E6585A818D5}"/>
+    <cellStyle name="Percent 2 2" xfId="339" xr:uid="{7891330D-653F-44CC-8E75-510CA34C1768}"/>
+    <cellStyle name="Percent 2 2 2" xfId="340" xr:uid="{3DC101EA-B14A-46FA-BE75-40A01BC4A537}"/>
+    <cellStyle name="Percent 2 3" xfId="341" xr:uid="{C5D8D9C6-2C27-4598-85C9-5B0F7D9181CF}"/>
+    <cellStyle name="Percent 3" xfId="342" xr:uid="{7B56F642-0273-4BCC-850D-0C7A07581CF0}"/>
+    <cellStyle name="Percent 3 2" xfId="343" xr:uid="{A3F83737-4F98-4F05-BCBE-3E48F4BAA2EB}"/>
+    <cellStyle name="Percent 4" xfId="344" xr:uid="{48939616-BAF3-42B2-813C-521A7356B402}"/>
+    <cellStyle name="Percent 4 2" xfId="345" xr:uid="{0EE2407A-4624-4294-B433-0F69770E96F5}"/>
+    <cellStyle name="Percent 5" xfId="346" xr:uid="{A53C781C-566C-4484-B691-C17D16B10EF2}"/>
+    <cellStyle name="Percent 5 2" xfId="347" xr:uid="{9B680F18-F29B-4489-AE8C-5699E5969220}"/>
+    <cellStyle name="Percent 6" xfId="348" xr:uid="{5FCB8CFA-3CAC-450C-B895-791390C1CFC5}"/>
+    <cellStyle name="Percent 6 2" xfId="349" xr:uid="{A9737E4C-4E10-4F09-BABF-BA2ADD127BB9}"/>
+    <cellStyle name="Percent 7" xfId="350" xr:uid="{494B6EB4-5930-48E5-A443-3DE7AE1CC357}"/>
+    <cellStyle name="Percent 7 2" xfId="351" xr:uid="{77A00255-550B-4EE7-BD14-0B6DC497175E}"/>
+    <cellStyle name="Procentowy 10" xfId="352" xr:uid="{5FC13A86-4D49-4313-9C25-980D6F5B89C2}"/>
+    <cellStyle name="Procentowy 2" xfId="353" xr:uid="{64E9E321-B7C3-4EF0-8CBD-7ECACBBBE865}"/>
+    <cellStyle name="Procentowy 2 2" xfId="354" xr:uid="{C064B1B2-DC61-4183-A55D-C39EBC107ED3}"/>
+    <cellStyle name="Procentowy 2 2 2" xfId="355" xr:uid="{E51898E3-7A71-4A2A-83E6-21F8EFBF2FCA}"/>
+    <cellStyle name="Procentowy 2 3" xfId="356" xr:uid="{31959471-9BA8-4AC7-82C8-1E07809C0B6F}"/>
+    <cellStyle name="Procentowy 2 3 2" xfId="357" xr:uid="{C3506B35-444D-477F-BFAD-F091A2A2CFD4}"/>
+    <cellStyle name="Procentowy 2 4" xfId="358" xr:uid="{C5DA1967-6F84-48FD-BA4F-61CDB346D61C}"/>
+    <cellStyle name="Procentowy 3" xfId="359" xr:uid="{B7E3E911-CFED-43CF-988E-34F2AEA43072}"/>
+    <cellStyle name="Procentowy 3 2" xfId="360" xr:uid="{4794E99C-2F3E-48BD-A604-10389B5B9701}"/>
+    <cellStyle name="Procentowy 3 2 2" xfId="361" xr:uid="{AC542B75-037E-4CF9-8DFB-18AF8DA2900D}"/>
+    <cellStyle name="Procentowy 3 3" xfId="362" xr:uid="{D918F34F-8D1A-45D6-AD93-F77B796DF49D}"/>
+    <cellStyle name="Procentowy 4" xfId="363" xr:uid="{300716AF-E177-43C1-AAA4-49F00BF18414}"/>
+    <cellStyle name="Procentowy 4 2" xfId="364" xr:uid="{7435A5CC-F4D4-42A9-86AA-D4301D5E20B5}"/>
+    <cellStyle name="Procentowy 4 2 2" xfId="365" xr:uid="{8E94FBDE-65B0-4ECC-A5B5-8B2A1D9BCA47}"/>
+    <cellStyle name="Procentowy 4 3" xfId="366" xr:uid="{B5FAD842-0DAC-4AFE-8409-F7FEA59C4087}"/>
+    <cellStyle name="Procentowy 5" xfId="367" xr:uid="{34384E8E-7A4A-404C-9AF2-10548F90C58B}"/>
+    <cellStyle name="Procentowy 5 2" xfId="368" xr:uid="{6BEEAA05-2092-4C0E-AF46-FC09EE907E3C}"/>
+    <cellStyle name="Procentowy 5 2 2" xfId="369" xr:uid="{8E2B56DF-2080-4333-A923-B04049A69A24}"/>
+    <cellStyle name="Procentowy 5 2 3" xfId="370" xr:uid="{DFB3FF83-BB47-4541-B921-455A660F61D6}"/>
+    <cellStyle name="Procentowy 5 3" xfId="371" xr:uid="{CB687E5E-F24C-4B4A-97D6-C86C3E577B5C}"/>
+    <cellStyle name="Procentowy 5 3 2" xfId="372" xr:uid="{09901337-F80C-49A0-B900-E526169C99E4}"/>
+    <cellStyle name="Procentowy 5 4" xfId="373" xr:uid="{562112CB-48E7-4E29-8A97-B79024E192FA}"/>
+    <cellStyle name="Procentowy 6" xfId="374" xr:uid="{80D0F639-8E3B-4A34-9892-5B9D14374855}"/>
+    <cellStyle name="Procentowy 6 2" xfId="375" xr:uid="{62126378-7031-4DCE-9170-7147581FA163}"/>
+    <cellStyle name="Procentowy 7" xfId="376" xr:uid="{2901ACB4-1017-48EB-82EB-395243E3330A}"/>
+    <cellStyle name="Procentowy 8" xfId="377" xr:uid="{12539C69-8A5D-4D60-861A-FBEC54AC6FEA}"/>
+    <cellStyle name="Procentowy 8 2" xfId="378" xr:uid="{2A974056-4599-4040-8A1B-37298A27E8ED}"/>
+    <cellStyle name="Procentowy 9" xfId="379" xr:uid="{A6DBDCD7-CFED-43CF-9EF8-9199E61E98BD}"/>
+    <cellStyle name="Procentowy 9 2" xfId="380" xr:uid="{B0715459-E0BD-44A5-9DA5-6F5B56292A04}"/>
+    <cellStyle name="Result" xfId="381" xr:uid="{9E81F898-4F83-48F1-83D2-A59DA7D813B1}"/>
+    <cellStyle name="Result 1" xfId="382" xr:uid="{DBE3B6B6-0B29-48CD-9253-FD7602F38F60}"/>
+    <cellStyle name="Result 2" xfId="383" xr:uid="{F12E878B-2DE2-41C0-8162-316876B0AF1B}"/>
+    <cellStyle name="Result 3" xfId="384" xr:uid="{2D93CADB-20CA-421D-90DE-4EE6B0E2CCAE}"/>
+    <cellStyle name="Result 4" xfId="385" xr:uid="{290A6DE8-67CB-423E-90DA-9BD2D356517B}"/>
+    <cellStyle name="Result2" xfId="386" xr:uid="{966A4871-FCDA-42F1-927A-93D992504729}"/>
+    <cellStyle name="Result2 1" xfId="387" xr:uid="{F7FA5AE0-EB0F-4565-B0F7-258DDB981FAC}"/>
+    <cellStyle name="Result2 2" xfId="388" xr:uid="{A7048C6C-FF86-4E59-8E02-2FA2DA68DFD9}"/>
+    <cellStyle name="Result2 3" xfId="389" xr:uid="{5B25936C-9341-4949-BB69-2231F0F1A8DD}"/>
+    <cellStyle name="Result2 4" xfId="390" xr:uid="{23FB1EF6-0212-462B-A59A-E0E754334E59}"/>
+    <cellStyle name="Standard_A934B94" xfId="391" xr:uid="{BACAB551-C0B2-4E31-BA9E-A9CD74118937}"/>
+    <cellStyle name="Style 1" xfId="392" xr:uid="{D4D882CF-16C0-4FDB-A880-66B010BBE711}"/>
+    <cellStyle name="Style 1 2" xfId="393" xr:uid="{C3892D44-2B79-453D-B78C-55AE2D761F12}"/>
+    <cellStyle name="Suma 2" xfId="394" xr:uid="{A810C85E-AD8F-4410-BD77-D65DC9DABDCA}"/>
+    <cellStyle name="Suma 2 2" xfId="395" xr:uid="{C5E64B30-FF02-4FBB-BB26-DD742DE7E917}"/>
+    <cellStyle name="Table Title" xfId="396" xr:uid="{DC512F9A-3354-45AA-BDBF-95E34A80C504}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="397" xr:uid="{3B124235-E096-4CC9-B35E-835637E7D691}"/>
+    <cellStyle name="Tekst objaśnienia 2 2" xfId="398" xr:uid="{AE92525C-4E45-4B52-819B-D1EFE75E5E51}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="399" xr:uid="{2AEF4691-8EC8-4259-B124-CE16337F0337}"/>
+    <cellStyle name="Tekst ostrzeżenia 2 2" xfId="400" xr:uid="{910ADA7B-C521-487D-AEDE-F4A4169F41BA}"/>
+    <cellStyle name="Title 2" xfId="402" xr:uid="{EE4F59B7-1518-4D15-9167-69006B13A2C4}"/>
+    <cellStyle name="Title 3" xfId="401" xr:uid="{BB842ACD-CD4A-4D5C-884B-A633CD4FCAEE}"/>
+    <cellStyle name="Total 2" xfId="403" xr:uid="{F1BBD378-484F-4588-B14E-B475E66EA93C}"/>
+    <cellStyle name="Uwaga 2" xfId="404" xr:uid="{E59A51CD-8EB3-43CC-BBDD-700558D70609}"/>
+    <cellStyle name="Uwaga 2 2" xfId="405" xr:uid="{E4FCFE14-5B89-45F3-8246-52E5F067A7A4}"/>
+    <cellStyle name="Uwaga 3" xfId="406" xr:uid="{A772F807-C6B4-44EE-95D6-BA79028B1A30}"/>
+    <cellStyle name="Uwaga 3 2" xfId="407" xr:uid="{F27F94A3-F2D9-4F1A-857D-9437ED0237A5}"/>
+    <cellStyle name="Walutowy 2" xfId="408" xr:uid="{9B642C60-2187-4A13-AE07-1E93E19A1F90}"/>
+    <cellStyle name="Walutowy 2 2" xfId="409" xr:uid="{4E7DC818-5F9D-44E4-B2AF-069BD963904B}"/>
+    <cellStyle name="Walutowy 3" xfId="410" xr:uid="{186FB8D6-2DC3-49F1-BCFF-71BC175DD1C8}"/>
+    <cellStyle name="Walutowy 3 2" xfId="411" xr:uid="{67A33251-8EC0-47C2-A52F-FAB10ACFD327}"/>
+    <cellStyle name="Walutowy 4" xfId="412" xr:uid="{B38AC55D-4EFA-4F6A-8063-C5BA94679714}"/>
+    <cellStyle name="Walutowy 5" xfId="413" xr:uid="{AFBEDD44-AF9A-43FC-B47C-448F54C8E610}"/>
+    <cellStyle name="Warning Text 2" xfId="414" xr:uid="{C05C7BF6-D487-43C2-AF05-03D8F191E7EE}"/>
+    <cellStyle name="Złe 2" xfId="415" xr:uid="{DC8DDC97-6F4F-4DC0-AD81-BDF69CA64F65}"/>
+    <cellStyle name="Złe 2 2" xfId="416" xr:uid="{E70C2BA0-4660-4338-8180-6C36C0953E47}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,13 +2538,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="C78" sqref="A56:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1065,80 +2994,80 @@
       <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="16">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="16">
         <v>39</v>
       </c>
-      <c r="D8" s="3">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="16">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16">
         <v>80</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="16">
         <v>180</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>8</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>19</v>
-      </c>
-      <c r="M8" s="3">
-        <v>49</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>18</v>
+      </c>
+      <c r="M8" s="16">
+        <v>39</v>
+      </c>
+      <c r="N8" s="17">
         <v>2</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="16">
         <v>2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="16">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>130.5</v>
-      </c>
-      <c r="R8" s="1">
-        <v>101</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>7</v>
-      </c>
-      <c r="U8" s="7"/>
+      <c r="Q8" s="16">
+        <v>90.5</v>
+      </c>
+      <c r="R8" s="16">
+        <v>58</v>
+      </c>
+      <c r="S8" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>39</v>
       </c>
       <c r="D9" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3">
         <v>80</v>
@@ -1150,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -1162,37 +3091,37 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="3">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N9" s="3">
         <v>2</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" s="3">
         <v>4</v>
       </c>
       <c r="Q9" s="3">
-        <v>130</v>
-      </c>
-      <c r="R9" s="3">
-        <v>68</v>
+        <v>130.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>101</v>
       </c>
       <c r="S9" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>7</v>
       </c>
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
         <v>10</v>
@@ -1201,12 +3130,12 @@
         <v>39</v>
       </c>
       <c r="D10" s="3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3">
         <v>80</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>180</v>
       </c>
       <c r="G10" s="3">
@@ -1225,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M10" s="3">
         <v>39</v>
@@ -1240,10 +3169,10 @@
         <v>4</v>
       </c>
       <c r="Q10" s="3">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="R10" s="3">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S10" s="3">
         <v>2.5</v>
@@ -1254,73 +3183,71 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="A11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1">
+        <v>180</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>21</v>
+      </c>
+      <c r="M11" s="3">
+        <v>39</v>
+      </c>
+      <c r="N11" s="3">
         <v>2</v>
       </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>107</v>
+      </c>
+      <c r="R11" s="3">
+        <v>78</v>
+      </c>
+      <c r="S11" s="3">
         <v>2.5</v>
       </c>
-      <c r="R11" s="4">
-        <v>3</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="8">
-        <v>0</v>
-      </c>
+      <c r="T11" s="3">
+        <v>2</v>
+      </c>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
         <v>0</v>
@@ -1353,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -1368,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12" s="4">
         <v>0</v>
@@ -1384,71 +3311,73 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3">
-        <v>80</v>
-      </c>
-      <c r="F13" s="3">
-        <v>180</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>11</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
-        <v>12</v>
-      </c>
-      <c r="M13" s="1">
-        <v>39</v>
-      </c>
-      <c r="N13" s="3">
-        <v>2</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>152</v>
-      </c>
-      <c r="R13" s="1">
-        <v>28</v>
-      </c>
-      <c r="S13" s="3">
-        <v>3</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7"/>
+      <c r="A13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
@@ -1468,8 +3397,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>6</v>
+      <c r="H14" s="1">
+        <v>11</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1481,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>11</v>
-      </c>
-      <c r="M14" s="3">
+        <v>12</v>
+      </c>
+      <c r="M14" s="1">
         <v>39</v>
       </c>
       <c r="N14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" s="3">
         <v>1</v>
@@ -1496,10 +3425,10 @@
         <v>4</v>
       </c>
       <c r="Q14" s="3">
-        <v>135</v>
-      </c>
-      <c r="R14" s="3">
-        <v>55</v>
+        <v>152</v>
+      </c>
+      <c r="R14" s="1">
+        <v>28</v>
       </c>
       <c r="S14" s="3">
         <v>3</v>
@@ -1510,401 +3439,401 @@
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="4">
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
-      <c r="P15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="4">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4">
-        <v>0</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
-        <v>0</v>
-      </c>
+      <c r="C15" s="3">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3">
+        <v>180</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3">
+        <v>39</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>135</v>
+      </c>
+      <c r="R15" s="3">
+        <v>55</v>
+      </c>
+      <c r="S15" s="3">
+        <v>3</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3">
-        <v>24</v>
-      </c>
-      <c r="E16" s="3">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1">
-        <v>180</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>9</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>16</v>
-      </c>
-      <c r="M16" s="1">
-        <v>39</v>
-      </c>
-      <c r="N16" s="3">
-        <v>2</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>101</v>
-      </c>
-      <c r="R16" s="3">
-        <v>99</v>
-      </c>
-      <c r="S16" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T16" s="3">
-        <v>1</v>
-      </c>
-      <c r="U16" s="7"/>
+      <c r="A16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="4">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="8">
-        <v>0</v>
-      </c>
+      <c r="A17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1">
+        <v>180</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1">
+        <v>39</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>101</v>
+      </c>
+      <c r="R17" s="3">
+        <v>99</v>
+      </c>
+      <c r="S17" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3">
-        <v>24</v>
-      </c>
-      <c r="E18" s="3">
-        <v>80</v>
-      </c>
-      <c r="F18" s="3">
-        <v>160</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>13</v>
-      </c>
-      <c r="M18" s="1">
-        <v>40</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>130</v>
-      </c>
-      <c r="R18" s="1">
-        <v>78</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7"/>
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>0</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="8">
-        <v>0</v>
-      </c>
+      <c r="A19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3">
+        <v>80</v>
+      </c>
+      <c r="F19" s="3">
+        <v>160</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>9</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>13</v>
+      </c>
+      <c r="M19" s="1">
+        <v>40</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>130</v>
+      </c>
+      <c r="R19" s="1">
+        <v>78</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" s="3">
-        <v>39</v>
-      </c>
-      <c r="D20" s="3">
-        <v>33</v>
-      </c>
-      <c r="E20" s="3">
-        <v>80</v>
-      </c>
-      <c r="F20" s="3">
-        <v>180</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>8</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>19</v>
-      </c>
-      <c r="M20" s="3">
-        <v>39</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2</v>
-      </c>
-      <c r="P20" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>95</v>
-      </c>
-      <c r="R20" s="3">
-        <v>78</v>
-      </c>
-      <c r="S20" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7"/>
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3">
         <v>39</v>
       </c>
       <c r="D21" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E21" s="3">
         <v>80</v>
@@ -1916,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1928,43 +3857,43 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>23</v>
-      </c>
-      <c r="M21" s="1">
+        <v>19</v>
+      </c>
+      <c r="M21" s="3">
         <v>39</v>
       </c>
       <c r="N21" s="3">
         <v>2</v>
       </c>
       <c r="O21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="3">
         <v>4</v>
       </c>
       <c r="Q21" s="3">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="R21" s="3">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="S21" s="3">
         <v>2.5</v>
       </c>
       <c r="T21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C22" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3">
         <v>24</v>
@@ -1991,9 +3920,9 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>22</v>
-      </c>
-      <c r="M22" s="3">
+        <v>23</v>
+      </c>
+      <c r="M22" s="1">
         <v>39</v>
       </c>
       <c r="N22" s="3">
@@ -2006,33 +3935,31 @@
         <v>4</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="R22" s="3">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="S22" s="3">
         <v>2.5</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3">
         <v>14</v>
       </c>
       <c r="C23" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3">
         <v>80</v>
@@ -2044,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -2056,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M23" s="3">
         <v>39</v>
@@ -2071,76 +3998,78 @@
         <v>4</v>
       </c>
       <c r="Q23" s="3">
-        <v>129.5</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="S23" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="7"/>
+      <c r="U23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B24" s="3">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
+        <v>31</v>
+      </c>
+      <c r="D24" s="3">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3">
+        <v>80</v>
+      </c>
+      <c r="F24" s="3">
+        <v>180</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>10</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7</v>
+      </c>
+      <c r="M24" s="3">
+        <v>39</v>
+      </c>
+      <c r="N24" s="3">
         <v>2</v>
       </c>
-      <c r="C24" s="3">
-        <v>9</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="O24" s="3">
         <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>2</v>
-      </c>
-      <c r="M24" s="3">
-        <v>9</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>4</v>
       </c>
       <c r="Q24" s="3">
-        <v>17</v>
+        <v>129.5</v>
       </c>
       <c r="R24" s="3">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="S24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -2149,28 +4078,28 @@
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
       </c>
       <c r="C25" s="3">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>80</v>
-      </c>
-      <c r="F25" s="1">
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <v>0</v>
@@ -2182,52 +4111,52 @@
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M25" s="3">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="N25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" s="3">
         <v>4</v>
       </c>
       <c r="Q25" s="3">
-        <v>101</v>
-      </c>
-      <c r="R25" s="1">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2</v>
       </c>
       <c r="S25" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="T25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="7"/>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
       </c>
       <c r="C26" s="3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D26" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E26" s="3">
         <v>80</v>
       </c>
-      <c r="F26" s="3">
-        <v>180</v>
+      <c r="F26" s="1">
+        <v>160</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -2248,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="M26" s="3">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N26" s="3">
         <v>2</v>
@@ -2260,13 +4189,13 @@
         <v>4</v>
       </c>
       <c r="Q26" s="3">
-        <v>128</v>
-      </c>
-      <c r="R26" s="3">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="R26" s="1">
+        <v>83</v>
       </c>
       <c r="S26" s="3">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="T26" s="3">
         <v>1</v>
@@ -2275,16 +4204,16 @@
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="3">
         <v>39</v>
       </c>
       <c r="D27" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E27" s="3">
         <v>80</v>
@@ -2308,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M27" s="3">
         <v>39</v>
@@ -2323,10 +4252,10 @@
         <v>4</v>
       </c>
       <c r="Q27" s="3">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="R27" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="S27" s="3">
         <v>2.5</v>
@@ -2337,201 +4266,199 @@
       <c r="U27" s="7"/>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A28" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4">
-        <v>0</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0</v>
-      </c>
-      <c r="T28" s="4">
-        <v>0</v>
-      </c>
-      <c r="U28" s="8">
-        <v>0</v>
-      </c>
+      <c r="A28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="3">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3">
+        <v>39</v>
+      </c>
+      <c r="D28" s="3">
+        <v>33</v>
+      </c>
+      <c r="E28" s="3">
+        <v>80</v>
+      </c>
+      <c r="F28" s="3">
+        <v>180</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>18</v>
+      </c>
+      <c r="M28" s="3">
+        <v>39</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <v>2</v>
+      </c>
+      <c r="P28" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>112</v>
+      </c>
+      <c r="R28" s="3">
+        <v>90</v>
+      </c>
+      <c r="S28" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3">
-        <v>39</v>
-      </c>
-      <c r="D29" s="3">
-        <v>20</v>
-      </c>
-      <c r="E29" s="3">
-        <v>80</v>
-      </c>
-      <c r="F29" s="1">
-        <v>180</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>18</v>
-      </c>
-      <c r="M29" s="1">
-        <v>39</v>
-      </c>
-      <c r="N29" s="3">
-        <v>2</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>109</v>
-      </c>
-      <c r="R29" s="3">
-        <v>70</v>
-      </c>
-      <c r="S29" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="7"/>
+      <c r="A29" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <v>0</v>
+      </c>
+      <c r="U29" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="4">
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="8">
-        <v>0</v>
-      </c>
+      <c r="A30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>39</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>80</v>
+      </c>
+      <c r="F30" s="1">
+        <v>180</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>18</v>
+      </c>
+      <c r="M30" s="1">
+        <v>39</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>109</v>
+      </c>
+      <c r="R30" s="3">
+        <v>70</v>
+      </c>
+      <c r="S30" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -2595,134 +4522,136 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="3">
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <v>41</v>
-      </c>
-      <c r="D32" s="3">
-        <v>24</v>
-      </c>
-      <c r="E32" s="3">
-        <v>80</v>
-      </c>
-      <c r="F32" s="3">
-        <v>176</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>13</v>
-      </c>
-      <c r="M32" s="3">
-        <v>44</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>106.5</v>
-      </c>
-      <c r="R32" s="3">
-        <v>87</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7"/>
+      <c r="A32" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C33" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E33" s="3">
         <v>80</v>
       </c>
-      <c r="F33" s="1">
-        <v>163</v>
+      <c r="F33" s="3">
+        <v>176</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="1">
-        <v>11</v>
+      <c r="H33" s="3">
+        <v>9</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>13</v>
+      </c>
+      <c r="M33" s="3">
+        <v>44</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>1</v>
-      </c>
-      <c r="K33" s="3">
-        <v>10</v>
-      </c>
-      <c r="L33" s="1">
-        <v>14.75</v>
-      </c>
-      <c r="M33" s="1">
-        <v>40</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>4</v>
       </c>
-      <c r="Q33" s="1">
-        <v>128</v>
-      </c>
-      <c r="R33" s="1">
-        <v>138</v>
+      <c r="Q33" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="R33" s="3">
+        <v>87</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T33" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U33" s="7"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="3">
         <v>14</v>
@@ -2731,19 +4660,19 @@
         <v>40</v>
       </c>
       <c r="D34" s="3">
-        <v>22</v>
-      </c>
-      <c r="E34" s="1">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3">
         <v>80</v>
       </c>
-      <c r="F34" s="3">
-        <v>180</v>
+      <c r="F34" s="1">
+        <v>163</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="3">
-        <v>9</v>
+      <c r="H34" s="1">
+        <v>11</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -2752,94 +4681,94 @@
         <v>1</v>
       </c>
       <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>8</v>
-      </c>
-      <c r="M34" s="3">
+        <v>10</v>
+      </c>
+      <c r="L34" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="M34" s="1">
         <v>40</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="3">
         <v>4</v>
       </c>
-      <c r="Q34" s="3">
-        <v>114</v>
-      </c>
-      <c r="R34" s="3">
-        <v>90</v>
+      <c r="Q34" s="1">
+        <v>128</v>
+      </c>
+      <c r="R34" s="1">
+        <v>138</v>
       </c>
       <c r="S34" s="3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T34" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U34" s="7"/>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
+        <v>80</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>9</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
         <v>1</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M35" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="3">
         <v>4</v>
       </c>
       <c r="Q35" s="3">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="R35" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
@@ -2848,61 +4777,61 @@
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
-        <v>33</v>
-      </c>
-      <c r="E36" s="1">
-        <v>84</v>
-      </c>
-      <c r="F36" s="1">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
       </c>
-      <c r="J36" s="1">
-        <v>1</v>
+      <c r="J36" s="3">
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="1">
-        <v>18</v>
+      <c r="L36" s="3">
+        <v>2</v>
       </c>
       <c r="M36" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
         <v>4</v>
       </c>
-      <c r="Q36" s="1">
-        <v>141.5</v>
-      </c>
-      <c r="R36" s="1">
-        <v>94</v>
+      <c r="Q36" s="3">
+        <v>4</v>
+      </c>
+      <c r="R36" s="3">
+        <v>10</v>
       </c>
       <c r="S36" s="3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T36" s="3">
         <v>0</v>
@@ -2911,7 +4840,7 @@
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3">
         <v>14</v>
@@ -2923,10 +4852,10 @@
         <v>33</v>
       </c>
       <c r="E37" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -2937,14 +4866,14 @@
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="3">
-        <v>0</v>
+      <c r="J37" s="1">
+        <v>1</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="3">
-        <v>10</v>
+      <c r="L37" s="1">
+        <v>18</v>
       </c>
       <c r="M37" s="3">
         <v>40</v>
@@ -2958,38 +4887,38 @@
       <c r="P37" s="3">
         <v>4</v>
       </c>
-      <c r="Q37" s="3">
-        <v>95</v>
-      </c>
-      <c r="R37" s="3">
-        <v>86</v>
-      </c>
-      <c r="S37" s="1">
+      <c r="Q37" s="1">
+        <v>141.5</v>
+      </c>
+      <c r="R37" s="1">
+        <v>94</v>
+      </c>
+      <c r="S37" s="3">
         <v>2.5</v>
       </c>
       <c r="T37" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U37" s="7"/>
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C38" s="3">
         <v>40</v>
       </c>
       <c r="D38" s="3">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1">
         <v>80</v>
       </c>
       <c r="F38" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -3007,230 +4936,228 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M38" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="3">
         <v>4</v>
       </c>
       <c r="Q38" s="3">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="R38" s="3">
-        <v>83</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2.5</v>
       </c>
       <c r="T38" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U38" s="7"/>
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-      <c r="L39" s="4">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
-        <v>0</v>
-      </c>
-      <c r="N39" s="4">
-        <v>0</v>
-      </c>
-      <c r="O39" s="4">
-        <v>0</v>
-      </c>
-      <c r="P39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>0</v>
-      </c>
-      <c r="R39" s="4">
-        <v>0</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0</v>
-      </c>
-      <c r="T39" s="4">
-        <v>0</v>
-      </c>
-      <c r="U39" s="8">
-        <v>0</v>
-      </c>
+      <c r="A39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="3">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>80</v>
+      </c>
+      <c r="F39" s="1">
+        <v>160</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>9</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>9</v>
+      </c>
+      <c r="M39" s="3">
+        <v>50</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>103</v>
+      </c>
+      <c r="R39" s="3">
+        <v>83</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0</v>
+      </c>
+      <c r="U39" s="7"/>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>10</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="3">
-        <v>10</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>18</v>
-      </c>
-      <c r="R40" s="3">
-        <v>15</v>
-      </c>
-      <c r="S40" s="3">
-        <v>0</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7"/>
+      <c r="A40" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>0</v>
+      </c>
+      <c r="O40" s="4">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0</v>
+      </c>
+      <c r="U40" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="4">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-      <c r="T41" s="4">
-        <v>0</v>
-      </c>
-      <c r="U41" s="8">
-        <v>0</v>
-      </c>
+      <c r="A41" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1</v>
+      </c>
+      <c r="M41" s="3">
+        <v>10</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>18</v>
+      </c>
+      <c r="R41" s="3">
+        <v>15</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="7"/>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -3294,74 +5221,76 @@
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1">
-        <v>16.25</v>
-      </c>
-      <c r="C43" s="3">
-        <v>40</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>80</v>
-      </c>
-      <c r="F43" s="1">
-        <v>288</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>9</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="M43" s="3">
-        <v>50</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>208</v>
-      </c>
-      <c r="R43" s="1">
-        <v>112</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7"/>
+      <c r="A43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="3">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="B44" s="1">
+        <v>16.25</v>
       </c>
       <c r="C44" s="3">
         <v>40</v>
@@ -3373,10 +5302,10 @@
         <v>80</v>
       </c>
       <c r="F44" s="1">
-        <v>195</v>
-      </c>
-      <c r="G44" s="1">
-        <v>140</v>
+        <v>288</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>9</v>
@@ -3385,13 +5314,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <v>9.83</v>
+        <v>11.5</v>
       </c>
       <c r="M44" s="3">
         <v>50</v>
@@ -3403,13 +5332,13 @@
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>148.5</v>
+        <v>5</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>208</v>
       </c>
       <c r="R44" s="1">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3421,10 +5350,10 @@
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="1">
-        <v>12.25</v>
+        <v>40</v>
+      </c>
+      <c r="B45" s="3">
+        <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>40</v>
@@ -3436,28 +5365,28 @@
         <v>80</v>
       </c>
       <c r="F45" s="1">
-        <v>225</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="G45" s="1">
+        <v>140</v>
       </c>
       <c r="H45" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>11.75</v>
+        <v>9.83</v>
       </c>
       <c r="M45" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3469,10 +5398,10 @@
         <v>4</v>
       </c>
       <c r="Q45" s="1">
-        <v>130</v>
+        <v>148.5</v>
       </c>
       <c r="R45" s="1">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3484,10 +5413,10 @@
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="3">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="B46" s="1">
+        <v>12.25</v>
       </c>
       <c r="C46" s="3">
         <v>40</v>
@@ -3499,25 +5428,25 @@
         <v>80</v>
       </c>
       <c r="F46" s="1">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="J46" s="1">
+        <v>1</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3">
-        <v>8</v>
+      <c r="L46" s="1">
+        <v>11.75</v>
       </c>
       <c r="M46" s="3">
         <v>40</v>
@@ -3532,10 +5461,10 @@
         <v>4</v>
       </c>
       <c r="Q46" s="1">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R46" s="1">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -3547,7 +5476,7 @@
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3">
         <v>12</v>
@@ -3562,25 +5491,25 @@
         <v>80</v>
       </c>
       <c r="F47" s="1">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>9</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>8</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>9.75</v>
       </c>
       <c r="M47" s="3">
         <v>40</v>
@@ -3589,16 +5518,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>4</v>
       </c>
       <c r="Q47" s="1">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="R47" s="1">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3610,10 +5539,10 @@
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3">
         <v>40</v>
@@ -3624,8 +5553,8 @@
       <c r="E48" s="3">
         <v>80</v>
       </c>
-      <c r="F48" s="3">
-        <v>160</v>
+      <c r="F48" s="1">
+        <v>225</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3636,14 +5565,14 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="J48" s="1">
+        <v>1</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3">
-        <v>9</v>
+      <c r="L48" s="1">
+        <v>9.75</v>
       </c>
       <c r="M48" s="3">
         <v>40</v>
@@ -3652,16 +5581,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>98</v>
-      </c>
-      <c r="R48" s="3">
-        <v>66</v>
+      <c r="Q48" s="1">
+        <v>119</v>
+      </c>
+      <c r="R48" s="1">
+        <v>102</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3671,9 +5600,9 @@
       </c>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A49" s="13" t="s">
-        <v>45</v>
+    <row r="49" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B49" s="3">
         <v>11</v>
@@ -3736,7 +5665,7 @@
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A50" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="3">
         <v>11</v>
@@ -3762,8 +5691,8 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-      <c r="J50" s="1">
-        <v>1</v>
+      <c r="J50" s="3">
+        <v>0</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -3774,7 +5703,7 @@
       <c r="M50" s="3">
         <v>40</v>
       </c>
-      <c r="N50" s="1">
+      <c r="N50" s="3">
         <v>0</v>
       </c>
       <c r="O50" s="3">
@@ -3799,45 +5728,45 @@
     </row>
     <row r="51" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A51" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F51" s="3">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
       </c>
       <c r="H51" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="3">
-        <v>0</v>
+      <c r="J51" s="1">
+        <v>1</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51" s="3">
         <v>9</v>
       </c>
       <c r="M51" s="3">
         <v>40</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <v>0</v>
       </c>
       <c r="O51" s="3">
@@ -3847,10 +5776,10 @@
         <v>4</v>
       </c>
       <c r="Q51" s="3">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="R51" s="3">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S51" s="3">
         <v>0</v>
@@ -3862,66 +5791,129 @@
     </row>
     <row r="52" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="3">
+        <v>12</v>
+      </c>
+      <c r="C52" s="3">
+        <v>30</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>41</v>
+      </c>
+      <c r="F52" s="3">
+        <v>163</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <v>9</v>
+      </c>
+      <c r="M52" s="3">
+        <v>40</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>122</v>
+      </c>
+      <c r="R52" s="3">
+        <v>74</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B53" s="3">
         <v>5</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C53" s="3">
         <v>16</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
         <v>2</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M53" s="3">
         <v>2</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
         <v>1</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q53" s="3">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R53" s="3">
         <v>6</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
         <v>0</v>
       </c>
     </row>

--- a/storage/app/iprs/1/iprs.xlsx
+++ b/storage/app/iprs/1/iprs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00CA884-EA81-4CF9-9598-EBAF8DD0F0FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB621B-BF21-4A16-AB8C-AC8A55C606DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -180,6 +180,9 @@
   <si>
     <t>M1-W007</t>
   </si>
+  <si>
+    <t>M1-W022</t>
+  </si>
 </sst>
 </file>
 
@@ -200,11 +203,18 @@
     <numFmt numFmtId="173" formatCode="#,##0.00&quot; &quot;[$zł-415];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$zł-415]"/>
     <numFmt numFmtId="174" formatCode="_-* #,##0.00&quot; zł&quot;_-;\-* #,##0.00&quot; zł&quot;_-;_-* \-??&quot; zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="86">
+  <fonts count="88">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Czcionka tekstu podstawowego"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -823,8 +833,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,6 +1108,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,22 +1434,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="418">
+  <cellStyleXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1430,189 +1449,198 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="172" fontId="43" fillId="0" borderId="0">
@@ -1621,14 +1649,14 @@
     <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="172" fontId="45" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="45" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="42" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="172" fontId="43" fillId="0" borderId="0">
@@ -1637,274 +1665,296 @@
     <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="172" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="172" fontId="45" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="45" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="45" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="45" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="68" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="71" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="73" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="72" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="67" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="74" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="75" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="74" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="75" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="73" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="74" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="173" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="77" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="22"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="22"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="46" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="46" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="47" borderId="0" xfId="261" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="48" borderId="0" xfId="261" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="261" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="4" borderId="23" xfId="261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="23" xfId="261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="46" borderId="23" xfId="261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="418">
+  <cellStyles count="423">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{B93C6E86-B24C-4DE8-983C-EFDD836848C5}"/>
     <cellStyle name="20% - Accent1 3" xfId="3" xr:uid="{65751210-4791-44D0-8CE0-3AF76E89CF0D}"/>
     <cellStyle name="20% - Accent2 2" xfId="6" xr:uid="{07E6CA6A-B34D-4001-9EA7-D9D4E5876D5A}"/>
@@ -1983,6 +2033,7 @@
     <cellStyle name="Accent1 3" xfId="79" xr:uid="{0FFA131E-3DCF-410B-895E-6C004E7CC2B6}"/>
     <cellStyle name="Accent1 4" xfId="80" xr:uid="{A45E9E63-4351-4965-ADE5-4AA665BFE2CD}"/>
     <cellStyle name="Accent1 5" xfId="75" xr:uid="{44B05425-0C63-42B6-A2A7-E8F6AB942F20}"/>
+    <cellStyle name="Accent1 6" xfId="418" xr:uid="{C67A5CA8-1845-4850-8FC1-3F60497E9C4E}"/>
     <cellStyle name="Accent2 - 40%" xfId="82" xr:uid="{D4BE2A9B-7B08-4B8C-814E-8D181CD73900}"/>
     <cellStyle name="Accent2 - 40% 2" xfId="83" xr:uid="{4072D1ED-4E1C-4784-836E-174CF3574A53}"/>
     <cellStyle name="Accent2 2" xfId="84" xr:uid="{FA57B459-F84E-4D95-8CD2-E49F2DBECAD0}"/>
@@ -1991,12 +2042,14 @@
     <cellStyle name="Accent2 4" xfId="87" xr:uid="{EDD53CB1-0DCA-4AAE-A418-0C95464FFEA7}"/>
     <cellStyle name="Accent2 5" xfId="88" xr:uid="{F10CC827-6526-465B-8B32-34AA15A1ACD6}"/>
     <cellStyle name="Accent2 6" xfId="81" xr:uid="{9F3F7C1D-B938-4FEE-81DC-54945DFF3C0A}"/>
+    <cellStyle name="Accent2 7" xfId="419" xr:uid="{FFE46A90-292E-4805-B25E-6420EE314354}"/>
     <cellStyle name="Accent3 - 40%" xfId="90" xr:uid="{1D0EAFAF-CF59-4984-BE6F-C77CB802724D}"/>
     <cellStyle name="Accent3 - 40% 2" xfId="91" xr:uid="{40220983-A697-48F7-A6FD-3CBD590C9CB4}"/>
     <cellStyle name="Accent3 2" xfId="92" xr:uid="{5BE432E1-3B09-4394-9F0C-061040C0F23D}"/>
     <cellStyle name="Accent3 3" xfId="93" xr:uid="{8EC903AF-0597-428F-88B9-6895F4E6AB0E}"/>
     <cellStyle name="Accent3 4" xfId="94" xr:uid="{E7C01402-B1C9-4F5B-8CBE-60B6F80BF101}"/>
     <cellStyle name="Accent3 5" xfId="89" xr:uid="{648CFB0A-D0D9-4C81-A6AD-F26915C7FBF5}"/>
+    <cellStyle name="Accent3 6" xfId="420" xr:uid="{7B18DE2D-F83A-447D-BBAB-055F97005534}"/>
     <cellStyle name="Accent4 2" xfId="96" xr:uid="{9C63CDEE-9F34-45B9-9600-5E0C5D662DFD}"/>
     <cellStyle name="Accent4 3" xfId="95" xr:uid="{338473BA-D068-47A0-931B-07207564BCB3}"/>
     <cellStyle name="Accent5 2" xfId="98" xr:uid="{B2EF40ED-6365-4BB4-854C-D9655446A96F}"/>
@@ -2174,6 +2227,7 @@
     <cellStyle name="Normalny 10 2" xfId="267" xr:uid="{6855EE7B-09AC-4D88-8380-DFFAAA267FE5}"/>
     <cellStyle name="Normalny 11" xfId="268" xr:uid="{4AAB102A-C518-4D61-AA9E-79CF012E8037}"/>
     <cellStyle name="Normalny 11 2" xfId="269" xr:uid="{23CAA67E-D72A-422D-9A56-A2FBC9390613}"/>
+    <cellStyle name="Normalny 11 3" xfId="421" xr:uid="{0616B16F-C693-499A-81D1-7DDC666BC7D3}"/>
     <cellStyle name="Normalny 12" xfId="270" xr:uid="{A9F26A52-E737-4B89-BC75-6B847B92A746}"/>
     <cellStyle name="Normalny 12 2" xfId="271" xr:uid="{BA45D60A-5D69-458F-98B9-44F897B01A12}"/>
     <cellStyle name="Normalny 13" xfId="272" xr:uid="{9D8B8535-7857-414A-AA4A-3FA8DB45A84F}"/>
@@ -2259,6 +2313,7 @@
     <cellStyle name="Percent 7" xfId="350" xr:uid="{494B6EB4-5930-48E5-A443-3DE7AE1CC357}"/>
     <cellStyle name="Percent 7 2" xfId="351" xr:uid="{77A00255-550B-4EE7-BD14-0B6DC497175E}"/>
     <cellStyle name="Procentowy 10" xfId="352" xr:uid="{5FC13A86-4D49-4313-9C25-980D6F5B89C2}"/>
+    <cellStyle name="Procentowy 10 2" xfId="422" xr:uid="{C110528D-90F5-4FFD-85D7-0BEBF367EAE9}"/>
     <cellStyle name="Procentowy 2" xfId="353" xr:uid="{64E9E321-B7C3-4EF0-8CBD-7ECACBBBE865}"/>
     <cellStyle name="Procentowy 2 2" xfId="354" xr:uid="{C064B1B2-DC61-4183-A55D-C39EBC107ED3}"/>
     <cellStyle name="Procentowy 2 2 2" xfId="355" xr:uid="{E51898E3-7A71-4A2A-83E6-21F8EFBF2FCA}"/>
@@ -2538,13 +2593,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="A56:C78"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57:A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -3950,81 +4005,79 @@
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45</v>
-      </c>
-      <c r="D23" s="3">
-        <v>24</v>
-      </c>
-      <c r="E23" s="3">
+        <v>53</v>
+      </c>
+      <c r="B23" s="22">
+        <v>12</v>
+      </c>
+      <c r="C23" s="22">
+        <v>40</v>
+      </c>
+      <c r="D23" s="22">
+        <v>25</v>
+      </c>
+      <c r="E23" s="22">
         <v>80</v>
       </c>
-      <c r="F23" s="3">
-        <v>180</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>22</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="F23" s="22">
+        <v>227</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>11</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <v>7</v>
+      </c>
+      <c r="M23" s="22">
         <v>39</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="22">
         <v>2</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="22">
         <v>1</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="22">
         <v>4</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>70</v>
-      </c>
-      <c r="S23" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="22">
+        <v>130</v>
+      </c>
+      <c r="R23" s="22">
+        <v>82</v>
+      </c>
+      <c r="S23" s="22">
+        <v>3</v>
+      </c>
+      <c r="T23" s="22">
+        <v>2</v>
+      </c>
+      <c r="U23" s="24"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3">
         <v>14</v>
       </c>
       <c r="C24" s="3">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" s="3">
         <v>80</v>
@@ -4036,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -4048,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M24" s="3">
         <v>39</v>
@@ -4063,76 +4116,78 @@
         <v>4</v>
       </c>
       <c r="Q24" s="3">
-        <v>129.5</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="S24" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3">
+        <v>80</v>
+      </c>
+      <c r="F25" s="3">
+        <v>180</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>10</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>7</v>
+      </c>
+      <c r="M25" s="3">
+        <v>39</v>
+      </c>
+      <c r="N25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="3">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="O25" s="3">
         <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2</v>
-      </c>
-      <c r="M25" s="3">
-        <v>9</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
       </c>
       <c r="P25" s="3">
         <v>4</v>
       </c>
       <c r="Q25" s="3">
-        <v>17</v>
+        <v>129.5</v>
       </c>
       <c r="R25" s="3">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="S25" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T25" s="3">
         <v>0</v>
@@ -4141,28 +4196,28 @@
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>80</v>
-      </c>
-      <c r="F26" s="1">
-        <v>160</v>
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4174,52 +4229,52 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M26" s="3">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="N26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>4</v>
       </c>
       <c r="Q26" s="3">
-        <v>101</v>
-      </c>
-      <c r="R26" s="1">
-        <v>83</v>
+        <v>17</v>
+      </c>
+      <c r="R26" s="3">
+        <v>2</v>
       </c>
       <c r="S26" s="3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="T26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="7"/>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
       </c>
       <c r="C27" s="3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E27" s="3">
         <v>80</v>
       </c>
-      <c r="F27" s="3">
-        <v>180</v>
+      <c r="F27" s="1">
+        <v>160</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -4240,7 +4295,7 @@
         <v>20</v>
       </c>
       <c r="M27" s="3">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="N27" s="3">
         <v>2</v>
@@ -4252,13 +4307,13 @@
         <v>4</v>
       </c>
       <c r="Q27" s="3">
-        <v>128</v>
-      </c>
-      <c r="R27" s="3">
-        <v>70</v>
+        <v>101</v>
+      </c>
+      <c r="R27" s="1">
+        <v>83</v>
       </c>
       <c r="S27" s="3">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="T27" s="3">
         <v>1</v>
@@ -4267,16 +4322,16 @@
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3">
         <v>39</v>
       </c>
       <c r="D28" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3">
         <v>80</v>
@@ -4300,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M28" s="3">
         <v>39</v>
@@ -4315,10 +4370,10 @@
         <v>4</v>
       </c>
       <c r="Q28" s="3">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="R28" s="3">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="S28" s="3">
         <v>2.5</v>
@@ -4329,392 +4384,392 @@
       <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
+        <v>39</v>
+      </c>
+      <c r="D29" s="3">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3">
+        <v>180</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>18</v>
+      </c>
+      <c r="M29" s="3">
+        <v>39</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="3">
+        <v>2</v>
+      </c>
+      <c r="P29" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>112</v>
+      </c>
+      <c r="R29" s="3">
+        <v>90</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1</v>
+      </c>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4">
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>0</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4">
-        <v>0</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4">
-        <v>0</v>
-      </c>
-      <c r="U29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="10" t="s">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B31" s="3">
         <v>11</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C31" s="3">
         <v>39</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="3">
         <v>20</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E31" s="3">
         <v>80</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
         <v>180</v>
       </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
         <v>8</v>
       </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
         <v>18</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M31" s="1">
         <v>39</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N31" s="3">
         <v>2</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O31" s="3">
         <v>1</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P31" s="3">
         <v>4</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q31" s="3">
         <v>109</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R31" s="3">
         <v>70</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S31" s="3">
         <v>2.5</v>
       </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>0</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0</v>
-      </c>
-      <c r="H31" s="4">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4">
-        <v>0</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-      <c r="L31" s="4">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <v>0</v>
-      </c>
-      <c r="O31" s="4">
-        <v>0</v>
-      </c>
-      <c r="P31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
-      <c r="R31" s="4">
-        <v>0</v>
-      </c>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
-      <c r="T31" s="4">
-        <v>0</v>
-      </c>
-      <c r="U31" s="8">
-        <v>0</v>
-      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="O32" s="4">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4">
+        <v>0</v>
+      </c>
+      <c r="T32" s="4">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A33" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4">
-        <v>0</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0</v>
-      </c>
-      <c r="O32" s="4">
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
-      <c r="T32" s="4">
-        <v>0</v>
-      </c>
-      <c r="U32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="3">
-        <v>22</v>
-      </c>
-      <c r="C33" s="3">
-        <v>41</v>
-      </c>
-      <c r="D33" s="3">
-        <v>24</v>
-      </c>
-      <c r="E33" s="3">
-        <v>80</v>
-      </c>
-      <c r="F33" s="3">
-        <v>176</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>13</v>
-      </c>
-      <c r="M33" s="3">
-        <v>44</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>106.5</v>
-      </c>
-      <c r="R33" s="3">
-        <v>87</v>
-      </c>
-      <c r="S33" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7"/>
+      <c r="B33" s="4">
+        <v>0</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
+      </c>
+      <c r="O33" s="4">
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+      <c r="S33" s="4">
+        <v>0</v>
+      </c>
+      <c r="T33" s="4">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C34" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" s="3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E34" s="3">
         <v>80</v>
       </c>
-      <c r="F34" s="1">
-        <v>163</v>
+      <c r="F34" s="3">
+        <v>176</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="1">
-        <v>11</v>
+      <c r="H34" s="3">
+        <v>9</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>13</v>
+      </c>
+      <c r="M34" s="3">
+        <v>44</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
         <v>1</v>
-      </c>
-      <c r="K34" s="3">
-        <v>10</v>
-      </c>
-      <c r="L34" s="1">
-        <v>14.75</v>
-      </c>
-      <c r="M34" s="1">
-        <v>40</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
       </c>
       <c r="P34" s="3">
         <v>4</v>
       </c>
-      <c r="Q34" s="1">
-        <v>128</v>
-      </c>
-      <c r="R34" s="1">
-        <v>138</v>
+      <c r="Q34" s="3">
+        <v>106.5</v>
+      </c>
+      <c r="R34" s="3">
+        <v>87</v>
       </c>
       <c r="S34" s="3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T34" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U34" s="7"/>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3">
         <v>14</v>
@@ -4723,19 +4778,19 @@
         <v>40</v>
       </c>
       <c r="D35" s="3">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3">
         <v>80</v>
       </c>
-      <c r="F35" s="3">
-        <v>180</v>
+      <c r="F35" s="1">
+        <v>163</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="3">
-        <v>9</v>
+      <c r="H35" s="1">
+        <v>11</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -4744,94 +4799,94 @@
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>8</v>
-      </c>
-      <c r="M35" s="3">
+        <v>10</v>
+      </c>
+      <c r="L35" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="M35" s="1">
         <v>40</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
-        <v>114</v>
-      </c>
-      <c r="R35" s="3">
-        <v>90</v>
+      <c r="Q35" s="1">
+        <v>128</v>
+      </c>
+      <c r="R35" s="1">
+        <v>138</v>
       </c>
       <c r="S35" s="3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U35" s="7"/>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C36" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="E36" s="1">
+        <v>80</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
       </c>
       <c r="H36" s="3">
+        <v>9</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
       <c r="K36" s="3">
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M36" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="3">
         <v>4</v>
       </c>
       <c r="Q36" s="3">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="R36" s="3">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="S36" s="3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T36" s="3">
         <v>0</v>
@@ -4840,61 +4895,61 @@
     </row>
     <row r="37" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3">
-        <v>33</v>
-      </c>
-      <c r="E37" s="1">
-        <v>84</v>
-      </c>
-      <c r="F37" s="1">
-        <v>189</v>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="1">
-        <v>1</v>
+      <c r="J37" s="3">
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
-      <c r="L37" s="1">
-        <v>18</v>
+      <c r="L37" s="3">
+        <v>2</v>
       </c>
       <c r="M37" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="3">
         <v>4</v>
       </c>
-      <c r="Q37" s="1">
-        <v>141.5</v>
-      </c>
-      <c r="R37" s="1">
-        <v>94</v>
+      <c r="Q37" s="3">
+        <v>4</v>
+      </c>
+      <c r="R37" s="3">
+        <v>10</v>
       </c>
       <c r="S37" s="3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="T37" s="3">
         <v>0</v>
@@ -4903,7 +4958,7 @@
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3">
         <v>14</v>
@@ -4915,10 +4970,10 @@
         <v>33</v>
       </c>
       <c r="E38" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F38" s="1">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -4929,14 +4984,14 @@
       <c r="I38" s="3">
         <v>0</v>
       </c>
-      <c r="J38" s="3">
-        <v>0</v>
+      <c r="J38" s="1">
+        <v>1</v>
       </c>
       <c r="K38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <v>10</v>
+      <c r="L38" s="1">
+        <v>18</v>
       </c>
       <c r="M38" s="3">
         <v>40</v>
@@ -4950,38 +5005,38 @@
       <c r="P38" s="3">
         <v>4</v>
       </c>
-      <c r="Q38" s="3">
-        <v>95</v>
-      </c>
-      <c r="R38" s="3">
-        <v>86</v>
-      </c>
-      <c r="S38" s="1">
+      <c r="Q38" s="1">
+        <v>141.5</v>
+      </c>
+      <c r="R38" s="1">
+        <v>94</v>
+      </c>
+      <c r="S38" s="3">
         <v>2.5</v>
       </c>
       <c r="T38" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U38" s="7"/>
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3">
         <v>40</v>
       </c>
       <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1">
         <v>80</v>
       </c>
       <c r="F39" s="1">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -4999,361 +5054,361 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M39" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="3">
         <v>4</v>
       </c>
       <c r="Q39" s="3">
+        <v>95</v>
+      </c>
+      <c r="R39" s="3">
+        <v>86</v>
+      </c>
+      <c r="S39" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="T39" s="3">
+        <v>6</v>
+      </c>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A40" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3">
+        <v>12</v>
+      </c>
+      <c r="C40" s="3">
+        <v>40</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1">
+        <v>160</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>9</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>9</v>
+      </c>
+      <c r="M40" s="3">
+        <v>50</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="3">
         <v>103</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R40" s="3">
         <v>83</v>
       </c>
-      <c r="S39" s="3">
-        <v>0</v>
-      </c>
-      <c r="T39" s="3">
-        <v>0</v>
-      </c>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A40" s="12" t="s">
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0</v>
+      </c>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-      <c r="L40" s="4">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
-        <v>0</v>
-      </c>
-      <c r="N40" s="4">
-        <v>0</v>
-      </c>
-      <c r="O40" s="4">
-        <v>0</v>
-      </c>
-      <c r="P40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>0</v>
-      </c>
-      <c r="R40" s="4">
-        <v>0</v>
-      </c>
-      <c r="S40" s="4">
-        <v>0</v>
-      </c>
-      <c r="T40" s="4">
-        <v>0</v>
-      </c>
-      <c r="U40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="10" t="s">
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>0</v>
+      </c>
+      <c r="M41" s="4">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0</v>
+      </c>
+      <c r="O41" s="4">
+        <v>0</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>0</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+      <c r="S41" s="4">
+        <v>0</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C42" s="3">
         <v>10</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>1</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M42" s="3">
         <v>10</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q42" s="3">
         <v>18</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R42" s="3">
         <v>15</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A42" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0</v>
-      </c>
-      <c r="C42" s="4">
-        <v>0</v>
-      </c>
-      <c r="D42" s="4">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>0</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4">
-        <v>0</v>
-      </c>
-      <c r="O42" s="4">
-        <v>0</v>
-      </c>
-      <c r="P42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>0</v>
-      </c>
-      <c r="R42" s="4">
-        <v>0</v>
-      </c>
-      <c r="S42" s="4">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4">
-        <v>0</v>
-      </c>
-      <c r="U42" s="8">
-        <v>0</v>
-      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="7"/>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0</v>
+      </c>
+      <c r="O43" s="4">
+        <v>0</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+      <c r="S43" s="4">
+        <v>0</v>
+      </c>
+      <c r="T43" s="4">
+        <v>0</v>
+      </c>
+      <c r="U43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A44" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="4">
-        <v>0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>0</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
-        <v>0</v>
-      </c>
-      <c r="N43" s="4">
-        <v>0</v>
-      </c>
-      <c r="O43" s="4">
-        <v>0</v>
-      </c>
-      <c r="P43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>0</v>
-      </c>
-      <c r="R43" s="4">
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
-        <v>0</v>
-      </c>
-      <c r="T43" s="4">
-        <v>0</v>
-      </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" thickBot="1">
-      <c r="A44" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1">
-        <v>16.25</v>
-      </c>
-      <c r="C44" s="3">
-        <v>40</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>80</v>
-      </c>
-      <c r="F44" s="1">
-        <v>288</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>9</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="M44" s="3">
-        <v>50</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>208</v>
-      </c>
-      <c r="R44" s="1">
-        <v>112</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="7"/>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>0</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0</v>
+      </c>
+      <c r="O44" s="4">
+        <v>0</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>0</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+      <c r="S44" s="4">
+        <v>0</v>
+      </c>
+      <c r="T44" s="4">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="3">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="B45" s="1">
+        <v>16.25</v>
       </c>
       <c r="C45" s="3">
         <v>40</v>
@@ -5365,10 +5420,10 @@
         <v>80</v>
       </c>
       <c r="F45" s="1">
-        <v>195</v>
-      </c>
-      <c r="G45" s="1">
-        <v>140</v>
+        <v>288</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>9</v>
@@ -5377,13 +5432,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>9.83</v>
+        <v>11.5</v>
       </c>
       <c r="M45" s="3">
         <v>50</v>
@@ -5395,13 +5450,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>148.5</v>
+        <v>5</v>
+      </c>
+      <c r="Q45" s="6">
+        <v>208</v>
       </c>
       <c r="R45" s="1">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -5413,10 +5468,10 @@
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" s="1">
-        <v>12.25</v>
+        <v>40</v>
+      </c>
+      <c r="B46" s="3">
+        <v>12</v>
       </c>
       <c r="C46" s="3">
         <v>40</v>
@@ -5428,28 +5483,28 @@
         <v>80</v>
       </c>
       <c r="F46" s="1">
-        <v>225</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
+        <v>195</v>
+      </c>
+      <c r="G46" s="1">
+        <v>140</v>
       </c>
       <c r="H46" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>11.75</v>
+        <v>9.83</v>
       </c>
       <c r="M46" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -5461,10 +5516,10 @@
         <v>4</v>
       </c>
       <c r="Q46" s="1">
-        <v>130</v>
+        <v>148.5</v>
       </c>
       <c r="R46" s="1">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -5476,10 +5531,10 @@
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="3">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <v>12.25</v>
       </c>
       <c r="C47" s="3">
         <v>40</v>
@@ -5491,25 +5546,25 @@
         <v>80</v>
       </c>
       <c r="F47" s="1">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="1">
+        <v>1</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3">
-        <v>8</v>
+      <c r="L47" s="1">
+        <v>11.75</v>
       </c>
       <c r="M47" s="3">
         <v>40</v>
@@ -5524,10 +5579,10 @@
         <v>4</v>
       </c>
       <c r="Q47" s="1">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="R47" s="1">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -5539,7 +5594,7 @@
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3">
         <v>12</v>
@@ -5554,25 +5609,25 @@
         <v>80</v>
       </c>
       <c r="F48" s="1">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>9</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>8</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>9.75</v>
       </c>
       <c r="M48" s="3">
         <v>40</v>
@@ -5581,16 +5636,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>4</v>
       </c>
       <c r="Q48" s="1">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="R48" s="1">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -5602,10 +5657,10 @@
     </row>
     <row r="49" spans="1:21" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3">
         <v>40</v>
@@ -5616,8 +5671,8 @@
       <c r="E49" s="3">
         <v>80</v>
       </c>
-      <c r="F49" s="3">
-        <v>160</v>
+      <c r="F49" s="1">
+        <v>225</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -5628,14 +5683,14 @@
       <c r="I49" s="3">
         <v>0</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="1">
+        <v>1</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3">
-        <v>9</v>
+      <c r="L49" s="1">
+        <v>9.75</v>
       </c>
       <c r="M49" s="3">
         <v>40</v>
@@ -5644,16 +5699,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>98</v>
-      </c>
-      <c r="R49" s="3">
-        <v>66</v>
+      <c r="Q49" s="1">
+        <v>119</v>
+      </c>
+      <c r="R49" s="1">
+        <v>102</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -5663,9 +5718,9 @@
       </c>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A50" s="13" t="s">
-        <v>45</v>
+    <row r="50" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="A50" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B50" s="3">
         <v>11</v>
@@ -5728,7 +5783,7 @@
     </row>
     <row r="51" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A51" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="3">
         <v>11</v>
@@ -5754,8 +5809,8 @@
       <c r="I51" s="3">
         <v>0</v>
       </c>
-      <c r="J51" s="1">
-        <v>1</v>
+      <c r="J51" s="3">
+        <v>0</v>
       </c>
       <c r="K51" s="3">
         <v>0</v>
@@ -5766,7 +5821,7 @@
       <c r="M51" s="3">
         <v>40</v>
       </c>
-      <c r="N51" s="1">
+      <c r="N51" s="3">
         <v>0</v>
       </c>
       <c r="O51" s="3">
@@ -5791,45 +5846,45 @@
     </row>
     <row r="52" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F52" s="3">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="1">
+        <v>1</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52" s="3">
         <v>9</v>
       </c>
       <c r="M52" s="3">
         <v>40</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <v>0</v>
       </c>
       <c r="O52" s="3">
@@ -5839,10 +5894,10 @@
         <v>4</v>
       </c>
       <c r="Q52" s="3">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="R52" s="3">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -5854,68 +5909,353 @@
     </row>
     <row r="53" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3">
+        <v>12</v>
+      </c>
+      <c r="C53" s="3">
+        <v>30</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>41</v>
+      </c>
+      <c r="F53" s="3">
+        <v>163</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>3</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>9</v>
+      </c>
+      <c r="M53" s="3">
+        <v>40</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>122</v>
+      </c>
+      <c r="R53" s="3">
+        <v>74</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A54" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B54" s="3">
         <v>5</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C54" s="3">
         <v>16</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="3">
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>2</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="3">
         <v>2</v>
       </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>1</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q54" s="3">
         <v>10</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R54" s="3">
         <v>6</v>
       </c>
-      <c r="S53" s="3">
-        <v>0</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0</v>
-      </c>
-      <c r="U53" s="3">
-        <v>0</v>
-      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15" customHeight="1">
+      <c r="A56" s="21"/>
+    </row>
+    <row r="57" spans="1:21" ht="15" customHeight="1">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:21" ht="15" customHeight="1">
+      <c r="A58" s="20"/>
+    </row>
+    <row r="59" spans="1:21" ht="15" customHeight="1">
+      <c r="A59" s="20"/>
+    </row>
+    <row r="60" spans="1:21" ht="15" customHeight="1">
+      <c r="A60" s="20"/>
+    </row>
+    <row r="61" spans="1:21" ht="15" customHeight="1">
+      <c r="A61" s="20"/>
+    </row>
+    <row r="62" spans="1:21" ht="15" customHeight="1">
+      <c r="A62" s="20"/>
+    </row>
+    <row r="63" spans="1:21" ht="15" customHeight="1">
+      <c r="A63" s="20"/>
+    </row>
+    <row r="64" spans="1:21" ht="15" customHeight="1">
+      <c r="A64" s="20"/>
+    </row>
+    <row r="65" spans="1:1" ht="15" customHeight="1">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1" ht="15" customHeight="1">
+      <c r="A66" s="20"/>
+    </row>
+    <row r="67" spans="1:1" ht="15" customHeight="1">
+      <c r="A67" s="20"/>
+    </row>
+    <row r="68" spans="1:1" ht="15" customHeight="1">
+      <c r="A68" s="20"/>
+    </row>
+    <row r="69" spans="1:1" ht="15" customHeight="1">
+      <c r="A69" s="20"/>
+    </row>
+    <row r="70" spans="1:1" ht="15" customHeight="1">
+      <c r="A70" s="20"/>
+    </row>
+    <row r="71" spans="1:1" ht="15" customHeight="1">
+      <c r="A71" s="20"/>
+    </row>
+    <row r="72" spans="1:1" ht="15" customHeight="1">
+      <c r="A72" s="20"/>
+    </row>
+    <row r="73" spans="1:1" ht="15" customHeight="1">
+      <c r="A73" s="20"/>
+    </row>
+    <row r="74" spans="1:1" ht="15" customHeight="1">
+      <c r="A74" s="20"/>
+    </row>
+    <row r="75" spans="1:1" ht="15" customHeight="1">
+      <c r="A75" s="20"/>
+    </row>
+    <row r="76" spans="1:1" ht="15" customHeight="1">
+      <c r="A76" s="20"/>
+    </row>
+    <row r="77" spans="1:1" ht="15" customHeight="1">
+      <c r="A77" s="20"/>
+    </row>
+    <row r="78" spans="1:1" ht="15" customHeight="1">
+      <c r="A78" s="20"/>
+    </row>
+    <row r="79" spans="1:1" ht="15" customHeight="1">
+      <c r="A79" s="20"/>
+    </row>
+    <row r="80" spans="1:1" ht="15" customHeight="1">
+      <c r="A80" s="20"/>
+    </row>
+    <row r="81" spans="1:1" ht="15" customHeight="1">
+      <c r="A81" s="20"/>
+    </row>
+    <row r="82" spans="1:1" ht="15" customHeight="1">
+      <c r="A82" s="19"/>
+    </row>
+    <row r="83" spans="1:1" ht="15" customHeight="1">
+      <c r="A83" s="19"/>
+    </row>
+    <row r="84" spans="1:1" ht="15" customHeight="1">
+      <c r="A84" s="19"/>
+    </row>
+    <row r="85" spans="1:1" ht="15" customHeight="1">
+      <c r="A85" s="19"/>
+    </row>
+    <row r="86" spans="1:1" ht="15" customHeight="1">
+      <c r="A86" s="19"/>
+    </row>
+    <row r="87" spans="1:1" ht="15" customHeight="1">
+      <c r="A87" s="19"/>
+    </row>
+    <row r="88" spans="1:1" ht="15" customHeight="1">
+      <c r="A88" s="19"/>
+    </row>
+    <row r="89" spans="1:1" ht="15" customHeight="1">
+      <c r="A89" s="19"/>
+    </row>
+    <row r="90" spans="1:1" ht="15" customHeight="1">
+      <c r="A90" s="19"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" customHeight="1">
+      <c r="A91" s="19"/>
+    </row>
+    <row r="92" spans="1:1" ht="15" customHeight="1">
+      <c r="A92" s="19"/>
+    </row>
+    <row r="93" spans="1:1" ht="15" customHeight="1">
+      <c r="A93" s="19"/>
+    </row>
+    <row r="94" spans="1:1" ht="15" customHeight="1">
+      <c r="A94" s="19"/>
+    </row>
+    <row r="95" spans="1:1" ht="15" customHeight="1">
+      <c r="A95" s="19"/>
+    </row>
+    <row r="96" spans="1:1" ht="15" customHeight="1">
+      <c r="A96" s="19"/>
+    </row>
+    <row r="97" spans="1:1" ht="15" customHeight="1">
+      <c r="A97" s="19"/>
+    </row>
+    <row r="98" spans="1:1" ht="15" customHeight="1">
+      <c r="A98" s="19"/>
+    </row>
+    <row r="99" spans="1:1" ht="15" customHeight="1">
+      <c r="A99" s="19"/>
+    </row>
+    <row r="100" spans="1:1" ht="15" customHeight="1">
+      <c r="A100" s="19"/>
+    </row>
+    <row r="101" spans="1:1" ht="15" customHeight="1">
+      <c r="A101" s="19"/>
+    </row>
+    <row r="102" spans="1:1" ht="15" customHeight="1">
+      <c r="A102" s="19"/>
+    </row>
+    <row r="103" spans="1:1" ht="15" customHeight="1">
+      <c r="A103" s="19"/>
+    </row>
+    <row r="104" spans="1:1" ht="15" customHeight="1">
+      <c r="A104" s="19"/>
+    </row>
+    <row r="105" spans="1:1" ht="15" customHeight="1">
+      <c r="A105" s="19"/>
+    </row>
+    <row r="106" spans="1:1" ht="15" customHeight="1">
+      <c r="A106" s="19"/>
+    </row>
+    <row r="107" spans="1:1" ht="15" customHeight="1">
+      <c r="A107" s="19"/>
+    </row>
+    <row r="108" spans="1:1" ht="15" customHeight="1">
+      <c r="A108" s="19"/>
+    </row>
+    <row r="109" spans="1:1" ht="15" customHeight="1">
+      <c r="A109" s="19"/>
+    </row>
+    <row r="110" spans="1:1" ht="15" customHeight="1">
+      <c r="A110" s="19"/>
+    </row>
+    <row r="111" spans="1:1" ht="15" customHeight="1">
+      <c r="A111" s="19"/>
+    </row>
+    <row r="112" spans="1:1" ht="15" customHeight="1">
+      <c r="A112" s="19"/>
+    </row>
+    <row r="113" spans="1:1" ht="15" customHeight="1">
+      <c r="A113" s="19"/>
+    </row>
+    <row r="114" spans="1:1" ht="15" customHeight="1">
+      <c r="A114" s="19"/>
+    </row>
+    <row r="115" spans="1:1" ht="15" customHeight="1">
+      <c r="A115" s="19"/>
+    </row>
+    <row r="116" spans="1:1" ht="15" customHeight="1">
+      <c r="A116" s="19"/>
+    </row>
+    <row r="117" spans="1:1" ht="15" customHeight="1">
+      <c r="A117" s="19"/>
+    </row>
+    <row r="118" spans="1:1" ht="15" customHeight="1">
+      <c r="A118" s="19"/>
+    </row>
+    <row r="119" spans="1:1" ht="15" customHeight="1">
+      <c r="A119" s="19"/>
+    </row>
+    <row r="120" spans="1:1" ht="15" customHeight="1">
+      <c r="A120" s="19"/>
+    </row>
+    <row r="121" spans="1:1" ht="15" customHeight="1">
+      <c r="A121" s="19"/>
+    </row>
+    <row r="122" spans="1:1" ht="15" customHeight="1">
+      <c r="A122" s="19"/>
+    </row>
+    <row r="123" spans="1:1" ht="15" customHeight="1">
+      <c r="A123" s="19"/>
+    </row>
+    <row r="124" spans="1:1" ht="15" customHeight="1">
+      <c r="A124" s="19"/>
+    </row>
+    <row r="125" spans="1:1" ht="15" customHeight="1">
+      <c r="A125" s="19"/>
+    </row>
+    <row r="126" spans="1:1" ht="15" customHeight="1">
+      <c r="A126" s="19"/>
+    </row>
+    <row r="127" spans="1:1" ht="15" customHeight="1">
+      <c r="A127" s="19"/>
+    </row>
+    <row r="128" spans="1:1" ht="15" customHeight="1">
+      <c r="A128" s="19"/>
+    </row>
+    <row r="129" spans="1:1" ht="15" customHeight="1">
+      <c r="A129" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>

--- a/storage/app/iprs/1/iprs.xlsx
+++ b/storage/app/iprs/1/iprs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB621B-BF21-4A16-AB8C-AC8A55C606DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B160D71-5400-457F-9A00-D1D1E8552C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>M1-W022</t>
+  </si>
+  <si>
+    <t>M1-W053</t>
+  </si>
+  <si>
+    <t>M1-W055</t>
   </si>
 </sst>
 </file>
@@ -2593,21 +2599,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U129"/>
+  <dimension ref="A1:AD130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A57" sqref="A57:A99"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10.625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2657,22 +2664,49 @@
         <v>26</v>
       </c>
       <c r="Q1" s="2">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2">
+        <v>28</v>
+      </c>
+      <c r="S1" s="2">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2">
         <v>30</v>
       </c>
-      <c r="R1" s="2">
+      <c r="U1" s="2">
         <v>31</v>
       </c>
-      <c r="S1" s="2">
+      <c r="V1" s="2">
         <v>32</v>
       </c>
-      <c r="T1" s="2">
+      <c r="W1" s="2">
         <v>33</v>
       </c>
-      <c r="U1" s="2">
+      <c r="X1" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="Y1" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2722,20 +2756,47 @@
         <v>4</v>
       </c>
       <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
         <v>96</v>
       </c>
-      <c r="R2" s="1">
+      <c r="U2" s="1">
         <v>52</v>
       </c>
-      <c r="S2" s="3">
+      <c r="V2" s="3">
         <v>2.5</v>
       </c>
-      <c r="T2" s="3">
+      <c r="W2" s="3">
         <v>11</v>
       </c>
-      <c r="U2" s="7"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -2785,20 +2846,47 @@
         <v>4</v>
       </c>
       <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
         <v>94.5</v>
       </c>
-      <c r="R3" s="3">
+      <c r="U3" s="3">
         <v>61</v>
       </c>
-      <c r="S3" s="3">
+      <c r="V3" s="3">
         <v>2</v>
       </c>
-      <c r="T3" s="3">
+      <c r="W3" s="3">
         <v>1</v>
       </c>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2848,20 +2936,47 @@
         <v>4</v>
       </c>
       <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
         <v>124</v>
       </c>
-      <c r="R4" s="3">
+      <c r="U4" s="3">
         <v>90</v>
       </c>
-      <c r="S4" s="3">
+      <c r="V4" s="3">
         <v>2.5</v>
       </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -2910,23 +3025,50 @@
       <c r="P5" s="4">
         <v>0</v>
       </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
         <v>0</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
       </c>
-      <c r="U5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -2976,16 +3118,43 @@
         <v>4</v>
       </c>
       <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
         <v>70</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="3">
         <v>34</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="11" t="s">
         <v>49</v>
       </c>
@@ -3035,20 +3204,47 @@
         <v>4</v>
       </c>
       <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
         <v>120</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <v>36</v>
       </c>
-      <c r="S7" s="3">
+      <c r="V7" s="3">
         <v>2.5</v>
       </c>
-      <c r="T7" s="3">
+      <c r="W7" s="3">
         <v>6</v>
       </c>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="15" t="s">
         <v>52</v>
       </c>
@@ -3097,21 +3293,48 @@
       <c r="P8" s="16">
         <v>4</v>
       </c>
-      <c r="Q8" s="16">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="16">
         <v>90.5</v>
       </c>
-      <c r="R8" s="16">
+      <c r="U8" s="16">
         <v>58</v>
       </c>
-      <c r="S8" s="16">
+      <c r="V8" s="16">
         <v>2.5</v>
       </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18"/>
-    </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W8" s="16">
+        <v>0</v>
+      </c>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A9" s="10" t="s">
         <v>50</v>
       </c>
@@ -3161,20 +3384,47 @@
         <v>4</v>
       </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
         <v>130.5</v>
       </c>
-      <c r="R9" s="1">
+      <c r="U9" s="1">
         <v>101</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
         <v>7</v>
       </c>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X9" s="7"/>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -3224,20 +3474,47 @@
         <v>4</v>
       </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
         <v>130</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>68</v>
       </c>
-      <c r="S10" s="3">
+      <c r="V10" s="3">
         <v>2.5</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>2</v>
       </c>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X10" s="7"/>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -3287,20 +3564,47 @@
         <v>4</v>
       </c>
       <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
         <v>107</v>
       </c>
-      <c r="R11" s="3">
+      <c r="U11" s="3">
         <v>78</v>
       </c>
-      <c r="S11" s="3">
+      <c r="V11" s="3">
         <v>2.5</v>
       </c>
-      <c r="T11" s="3">
+      <c r="W11" s="3">
         <v>2</v>
       </c>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X11" s="7"/>
+      <c r="Y11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -3349,23 +3653,50 @@
       <c r="P12" s="4">
         <v>0</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
         <v>2.5</v>
       </c>
-      <c r="R12" s="4">
+      <c r="U12" s="4">
         <v>3</v>
       </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -3414,23 +3745,50 @@
       <c r="P13" s="4">
         <v>0</v>
       </c>
-      <c r="Q13" s="4">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4">
-        <v>0</v>
-      </c>
-      <c r="S13" s="4">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
         <v>0</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
       </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
@@ -3480,20 +3838,47 @@
         <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>152</v>
       </c>
-      <c r="R14" s="1">
+      <c r="U14" s="1">
         <v>28</v>
       </c>
-      <c r="S14" s="3">
+      <c r="V14" s="3">
         <v>3</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -3543,20 +3928,47 @@
         <v>4</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>135</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>55</v>
       </c>
-      <c r="S15" s="3">
+      <c r="V15" s="3">
         <v>3</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="12" t="s">
         <v>12</v>
       </c>
@@ -3605,23 +4017,50 @@
       <c r="P16" s="4">
         <v>0</v>
       </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3">
         <v>0</v>
       </c>
       <c r="T16" s="4">
         <v>0</v>
       </c>
-      <c r="U16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
@@ -3671,20 +4110,47 @@
         <v>4</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>101</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>99</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>2.5</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>1</v>
       </c>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X17" s="7"/>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3733,23 +4199,50 @@
       <c r="P18" s="4">
         <v>0</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>0</v>
-      </c>
-      <c r="S18" s="4">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
       </c>
-      <c r="U18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
@@ -3798,21 +4291,48 @@
       <c r="P19" s="3">
         <v>4</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
         <v>130</v>
       </c>
-      <c r="R19" s="1">
+      <c r="U19" s="1">
         <v>78</v>
       </c>
-      <c r="S19" s="3">
-        <v>0</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="12" t="s">
         <v>16</v>
       </c>
@@ -3861,23 +4381,50 @@
       <c r="P20" s="4">
         <v>0</v>
       </c>
-      <c r="Q20" s="4">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4">
-        <v>0</v>
-      </c>
-      <c r="S20" s="4">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
       </c>
-      <c r="U20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
+        <v>0</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="10" t="s">
         <v>17</v>
       </c>
@@ -3927,20 +4474,47 @@
         <v>4</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>95</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>78</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>2.5</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3990,20 +4564,47 @@
         <v>4</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>116</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>92</v>
       </c>
-      <c r="S22" s="3">
+      <c r="V22" s="3">
         <v>2.5</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>2</v>
       </c>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X22" s="7"/>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
@@ -4052,21 +4653,48 @@
       <c r="P23" s="22">
         <v>4</v>
       </c>
-      <c r="Q23" s="22">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="22">
         <v>130</v>
       </c>
-      <c r="R23" s="22">
+      <c r="U23" s="22">
         <v>82</v>
       </c>
-      <c r="S23" s="22">
+      <c r="V23" s="22">
         <v>3</v>
       </c>
-      <c r="T23" s="22">
+      <c r="W23" s="22">
         <v>2</v>
       </c>
-      <c r="U23" s="24"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X23" s="24"/>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
@@ -4116,22 +4744,49 @@
         <v>4</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>70</v>
       </c>
-      <c r="S24" s="3">
+      <c r="V24" s="3">
         <v>2.5</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="7">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A25" s="10" t="s">
         <v>20</v>
       </c>
@@ -4181,20 +4836,47 @@
         <v>4</v>
       </c>
       <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
         <v>129.5</v>
       </c>
-      <c r="R25" s="3">
+      <c r="U25" s="3">
         <v>90</v>
       </c>
-      <c r="S25" s="3">
+      <c r="V25" s="3">
         <v>3</v>
       </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
@@ -4244,20 +4926,47 @@
         <v>4</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>17</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>2</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>2</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>21</v>
       </c>
@@ -4307,20 +5016,47 @@
         <v>4</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>101</v>
       </c>
-      <c r="R27" s="1">
+      <c r="U27" s="1">
         <v>83</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>0.5</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>1</v>
       </c>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X27" s="7"/>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="10" t="s">
         <v>22</v>
       </c>
@@ -4370,20 +5106,47 @@
         <v>4</v>
       </c>
       <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
         <v>128</v>
       </c>
-      <c r="R28" s="3">
+      <c r="U28" s="3">
         <v>70</v>
       </c>
-      <c r="S28" s="3">
+      <c r="V28" s="3">
         <v>2.5</v>
       </c>
-      <c r="T28" s="3">
+      <c r="W28" s="3">
         <v>1</v>
       </c>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X28" s="7"/>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="10" t="s">
         <v>23</v>
       </c>
@@ -4433,20 +5196,47 @@
         <v>4</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>112</v>
       </c>
-      <c r="R29" s="3">
+      <c r="U29" s="3">
         <v>90</v>
       </c>
-      <c r="S29" s="3">
+      <c r="V29" s="3">
         <v>2.5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="W29" s="3">
         <v>1</v>
       </c>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X29" s="7"/>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="12" t="s">
         <v>24</v>
       </c>
@@ -4495,23 +5285,50 @@
       <c r="P30" s="4">
         <v>0</v>
       </c>
-      <c r="Q30" s="4">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4">
-        <v>0</v>
-      </c>
-      <c r="S30" s="4">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
         <v>0</v>
       </c>
       <c r="T30" s="4">
         <v>0</v>
       </c>
-      <c r="U30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A31" s="10" t="s">
         <v>25</v>
       </c>
@@ -4561,20 +5378,47 @@
         <v>4</v>
       </c>
       <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
         <v>109</v>
       </c>
-      <c r="R31" s="3">
+      <c r="U31" s="3">
         <v>70</v>
       </c>
-      <c r="S31" s="3">
+      <c r="V31" s="3">
         <v>2.5</v>
       </c>
-      <c r="T31" s="3">
-        <v>0</v>
-      </c>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A32" s="12" t="s">
         <v>26</v>
       </c>
@@ -4623,23 +5467,50 @@
       <c r="P32" s="4">
         <v>0</v>
       </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
-      <c r="R32" s="4">
-        <v>0</v>
-      </c>
-      <c r="S32" s="4">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="4">
         <v>0</v>
       </c>
-      <c r="U32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U32" s="4">
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <v>0</v>
+      </c>
+      <c r="X32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A33" s="12" t="s">
         <v>27</v>
       </c>
@@ -4688,23 +5559,50 @@
       <c r="P33" s="4">
         <v>0</v>
       </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
-      <c r="R33" s="4">
-        <v>0</v>
-      </c>
-      <c r="S33" s="4">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="4">
         <v>0</v>
       </c>
-      <c r="U33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A34" s="10" t="s">
         <v>28</v>
       </c>
@@ -4754,20 +5652,47 @@
         <v>4</v>
       </c>
       <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
         <v>106.5</v>
       </c>
-      <c r="R34" s="3">
+      <c r="U34" s="3">
         <v>87</v>
       </c>
-      <c r="S34" s="3">
+      <c r="V34" s="3">
         <v>2.5</v>
       </c>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A35" s="10" t="s">
         <v>29</v>
       </c>
@@ -4816,21 +5741,48 @@
       <c r="P35" s="3">
         <v>4</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1">
         <v>128</v>
       </c>
-      <c r="R35" s="1">
+      <c r="U35" s="1">
         <v>138</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>6</v>
       </c>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X35" s="7"/>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -4880,20 +5832,47 @@
         <v>4</v>
       </c>
       <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
         <v>114</v>
       </c>
-      <c r="R36" s="3">
+      <c r="U36" s="3">
         <v>90</v>
       </c>
-      <c r="S36" s="3">
+      <c r="V36" s="3">
         <v>2.5</v>
       </c>
-      <c r="T36" s="3">
-        <v>0</v>
-      </c>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
@@ -4943,20 +5922,47 @@
         <v>4</v>
       </c>
       <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
         <v>4</v>
       </c>
-      <c r="R37" s="3">
+      <c r="U37" s="3">
         <v>10</v>
       </c>
-      <c r="S37" s="3">
-        <v>0</v>
-      </c>
-      <c r="T37" s="3">
-        <v>0</v>
-      </c>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V37" s="3">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A38" s="10" t="s">
         <v>32</v>
       </c>
@@ -5005,21 +6011,48 @@
       <c r="P38" s="3">
         <v>4</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="1">
         <v>141.5</v>
       </c>
-      <c r="R38" s="1">
+      <c r="U38" s="1">
         <v>94</v>
       </c>
-      <c r="S38" s="3">
+      <c r="V38" s="3">
         <v>2.5</v>
       </c>
-      <c r="T38" s="3">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
@@ -5069,20 +6102,47 @@
         <v>4</v>
       </c>
       <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
         <v>95</v>
       </c>
-      <c r="R39" s="3">
+      <c r="U39" s="3">
         <v>86</v>
       </c>
-      <c r="S39" s="1">
+      <c r="V39" s="1">
         <v>2.5</v>
       </c>
-      <c r="T39" s="3">
+      <c r="W39" s="3">
         <v>6</v>
       </c>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="X39" s="7"/>
+      <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A40" s="10" t="s">
         <v>34</v>
       </c>
@@ -5132,20 +6192,47 @@
         <v>4</v>
       </c>
       <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
         <v>103</v>
       </c>
-      <c r="R40" s="3">
+      <c r="U40" s="3">
         <v>83</v>
       </c>
-      <c r="S40" s="3">
-        <v>0</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A41" s="12" t="s">
         <v>35</v>
       </c>
@@ -5194,23 +6281,50 @@
       <c r="P41" s="4">
         <v>0</v>
       </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="4">
         <v>0</v>
       </c>
-      <c r="U41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="10" t="s">
         <v>36</v>
       </c>
@@ -5260,20 +6374,47 @@
         <v>4</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>18</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>15</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7"/>
-    </row>
-    <row r="43" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>37</v>
       </c>
@@ -5322,23 +6463,50 @@
       <c r="P43" s="4">
         <v>0</v>
       </c>
-      <c r="Q43" s="4">
-        <v>0</v>
-      </c>
-      <c r="R43" s="4">
-        <v>0</v>
-      </c>
-      <c r="S43" s="4">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
         <v>0</v>
       </c>
       <c r="T43" s="4">
         <v>0</v>
       </c>
-      <c r="U43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A44" s="12" t="s">
         <v>38</v>
       </c>
@@ -5387,23 +6555,50 @@
       <c r="P44" s="4">
         <v>0</v>
       </c>
-      <c r="Q44" s="4">
-        <v>0</v>
-      </c>
-      <c r="R44" s="4">
-        <v>0</v>
-      </c>
-      <c r="S44" s="4">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
         <v>0</v>
       </c>
       <c r="T44" s="4">
         <v>0</v>
       </c>
-      <c r="U44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="U44" s="4">
+        <v>0</v>
+      </c>
+      <c r="V44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="4">
+        <v>0</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A45" s="10" t="s">
         <v>39</v>
       </c>
@@ -5452,21 +6647,48 @@
       <c r="P45" s="3">
         <v>5</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6">
         <v>208</v>
       </c>
-      <c r="R45" s="1">
+      <c r="U45" s="1">
         <v>112</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="7"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A46" s="10" t="s">
         <v>40</v>
       </c>
@@ -5515,21 +6737,48 @@
       <c r="P46" s="3">
         <v>4</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
         <v>148.5</v>
       </c>
-      <c r="R46" s="1">
+      <c r="U46" s="1">
         <v>119</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A47" s="10" t="s">
         <v>41</v>
       </c>
@@ -5578,21 +6827,48 @@
       <c r="P47" s="3">
         <v>4</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
         <v>130</v>
       </c>
-      <c r="R47" s="1">
+      <c r="U47" s="1">
         <v>96</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A48" s="10" t="s">
         <v>42</v>
       </c>
@@ -5641,21 +6917,48 @@
       <c r="P48" s="3">
         <v>4</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1">
         <v>123</v>
       </c>
-      <c r="R48" s="1">
+      <c r="U48" s="1">
         <v>66</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A49" s="10" t="s">
         <v>43</v>
       </c>
@@ -5704,21 +7007,48 @@
       <c r="P49" s="3">
         <v>4</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
         <v>119</v>
       </c>
-      <c r="R49" s="1">
+      <c r="U49" s="1">
         <v>102</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="7"/>
-    </row>
-    <row r="50" spans="1:21" ht="15" customHeight="1" thickBot="1">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15" customHeight="1" thickBot="1">
       <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
@@ -5768,20 +7098,47 @@
         <v>4</v>
       </c>
       <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
         <v>98</v>
       </c>
-      <c r="R50" s="3">
+      <c r="U50" s="3">
         <v>66</v>
       </c>
-      <c r="S50" s="3">
-        <v>0</v>
-      </c>
-      <c r="T50" s="3">
-        <v>0</v>
-      </c>
-      <c r="U50" s="7"/>
-    </row>
-    <row r="51" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A51" s="13" t="s">
         <v>45</v>
       </c>
@@ -5831,20 +7188,47 @@
         <v>4</v>
       </c>
       <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
         <v>98</v>
       </c>
-      <c r="R51" s="3">
+      <c r="U51" s="3">
         <v>66</v>
       </c>
-      <c r="S51" s="3">
-        <v>0</v>
-      </c>
-      <c r="T51" s="3">
-        <v>0</v>
-      </c>
-      <c r="U51" s="7"/>
-    </row>
-    <row r="52" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A52" s="13" t="s">
         <v>46</v>
       </c>
@@ -5894,20 +7278,47 @@
         <v>4</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>98</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>66</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="7"/>
-    </row>
-    <row r="53" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A53" s="13" t="s">
         <v>47</v>
       </c>
@@ -5957,109 +7368,344 @@
         <v>4</v>
       </c>
       <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
         <v>122</v>
       </c>
-      <c r="R53" s="3">
+      <c r="U53" s="3">
         <v>74</v>
       </c>
-      <c r="S53" s="3">
-        <v>0</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0</v>
-      </c>
-      <c r="U53" s="7"/>
-    </row>
-    <row r="54" spans="1:21" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A54" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A55" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>5</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C55" s="3">
         <v>16</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
         <v>2</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M55" s="3">
         <v>2</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
         <v>1</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
         <v>10</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U55" s="3">
         <v>6</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="15" customHeight="1">
-      <c r="A56" s="21"/>
-    </row>
-    <row r="57" spans="1:21" ht="15" customHeight="1">
-      <c r="A57" s="20"/>
-    </row>
-    <row r="58" spans="1:21" ht="15" customHeight="1">
+      <c r="V55" s="3">
+        <v>0</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0</v>
+      </c>
+      <c r="V56" s="3">
+        <v>0</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="15" customHeight="1">
+      <c r="A57" s="21"/>
+    </row>
+    <row r="58" spans="1:30" ht="15" customHeight="1">
       <c r="A58" s="20"/>
     </row>
-    <row r="59" spans="1:21" ht="15" customHeight="1">
+    <row r="59" spans="1:30" ht="15" customHeight="1">
       <c r="A59" s="20"/>
     </row>
-    <row r="60" spans="1:21" ht="15" customHeight="1">
+    <row r="60" spans="1:30" ht="15" customHeight="1">
       <c r="A60" s="20"/>
     </row>
-    <row r="61" spans="1:21" ht="15" customHeight="1">
+    <row r="61" spans="1:30" ht="15" customHeight="1">
       <c r="A61" s="20"/>
     </row>
-    <row r="62" spans="1:21" ht="15" customHeight="1">
+    <row r="62" spans="1:30" ht="15" customHeight="1">
       <c r="A62" s="20"/>
     </row>
-    <row r="63" spans="1:21" ht="15" customHeight="1">
+    <row r="63" spans="1:30" ht="15" customHeight="1">
       <c r="A63" s="20"/>
     </row>
-    <row r="64" spans="1:21" ht="15" customHeight="1">
+    <row r="64" spans="1:30" ht="15" customHeight="1">
       <c r="A64" s="20"/>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1">
@@ -6114,7 +7760,7 @@
       <c r="A81" s="20"/>
     </row>
     <row r="82" spans="1:1" ht="15" customHeight="1">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83" spans="1:1" ht="15" customHeight="1">
       <c r="A83" s="19"/>
@@ -6256,6 +7902,9 @@
     </row>
     <row r="129" spans="1:1" ht="15" customHeight="1">
       <c r="A129" s="19"/>
+    </row>
+    <row r="130" spans="1:1" ht="15" customHeight="1">
+      <c r="A130" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>

--- a/storage/app/iprs/1/iprs.xlsx
+++ b/storage/app/iprs/1/iprs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B160D71-5400-457F-9A00-D1D1E8552C4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1E5228-C61D-4BA1-99BE-D9E2C45A4636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,27 @@
   <si>
     <t>M1-W055</t>
   </si>
+  <si>
+    <t>M1-W056</t>
+  </si>
+  <si>
+    <t>M1-W057</t>
+  </si>
+  <si>
+    <t>M1-W058</t>
+  </si>
+  <si>
+    <t>M1-W059</t>
+  </si>
+  <si>
+    <t>M1-W060</t>
+  </si>
+  <si>
+    <t>M1-W061</t>
+  </si>
+  <si>
+    <t>M1-W062</t>
+  </si>
 </sst>
 </file>
 
@@ -840,13 +861,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
+      <sz val="8"/>
+      <name val="Czcionka tekstu podstawowego"/>
     </font>
   </fonts>
   <fills count="49">
@@ -1130,7 +1146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1437,6 +1453,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1947,9 +1974,6 @@
     </xf>
     <xf numFmtId="0" fontId="86" fillId="47" borderId="0" xfId="261" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="86" fillId="48" borderId="0" xfId="261" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="261" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="86" fillId="4" borderId="23" xfId="261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,6 +1982,9 @@
     </xf>
     <xf numFmtId="0" fontId="86" fillId="46" borderId="23" xfId="261" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="423">
@@ -2602,10 +2629,10 @@
   <dimension ref="A1:AD130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="AB52" sqref="AB52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -4608,49 +4635,49 @@
       <c r="A23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>12</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>40</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>25</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>80</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>227</v>
       </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
         <v>11</v>
       </c>
-      <c r="I23" s="22">
-        <v>0</v>
-      </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
+      <c r="I23" s="21">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="22">
         <v>7</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="21">
         <v>39</v>
       </c>
-      <c r="N23" s="22">
+      <c r="N23" s="21">
         <v>2</v>
       </c>
-      <c r="O23" s="22">
+      <c r="O23" s="21">
         <v>1</v>
       </c>
-      <c r="P23" s="22">
+      <c r="P23" s="21">
         <v>4</v>
       </c>
       <c r="Q23" s="3">
@@ -4662,19 +4689,19 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="21">
         <v>130</v>
       </c>
-      <c r="U23" s="22">
+      <c r="U23" s="21">
         <v>82</v>
       </c>
-      <c r="V23" s="22">
+      <c r="V23" s="21">
         <v>3</v>
       </c>
-      <c r="W23" s="22">
+      <c r="W23" s="21">
         <v>2</v>
       </c>
-      <c r="X23" s="24"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -7684,26 +7711,649 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1">
-      <c r="A57" s="21"/>
-    </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1">
-      <c r="A58" s="20"/>
-    </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1">
-      <c r="A59" s="20"/>
-    </row>
-    <row r="60" spans="1:30" ht="15" customHeight="1">
-      <c r="A60" s="20"/>
-    </row>
-    <row r="61" spans="1:30" ht="15" customHeight="1">
-      <c r="A61" s="20"/>
-    </row>
-    <row r="62" spans="1:30" ht="15" customHeight="1">
-      <c r="A62" s="20"/>
-    </row>
-    <row r="63" spans="1:30" ht="15" customHeight="1">
-      <c r="A63" s="20"/>
+    <row r="57" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="24">
+        <v>0</v>
+      </c>
+      <c r="C57" s="24">
+        <v>0</v>
+      </c>
+      <c r="D57" s="24">
+        <v>0</v>
+      </c>
+      <c r="E57" s="24">
+        <v>0</v>
+      </c>
+      <c r="F57" s="24">
+        <v>0</v>
+      </c>
+      <c r="G57" s="24">
+        <v>0</v>
+      </c>
+      <c r="H57" s="24">
+        <v>0</v>
+      </c>
+      <c r="I57" s="24">
+        <v>0</v>
+      </c>
+      <c r="J57" s="24">
+        <v>0</v>
+      </c>
+      <c r="K57" s="24">
+        <v>0</v>
+      </c>
+      <c r="L57" s="24">
+        <v>0</v>
+      </c>
+      <c r="M57" s="24">
+        <v>0</v>
+      </c>
+      <c r="N57" s="24">
+        <v>0</v>
+      </c>
+      <c r="O57" s="24">
+        <v>0</v>
+      </c>
+      <c r="P57" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="24">
+        <v>0</v>
+      </c>
+      <c r="R57" s="24">
+        <v>0</v>
+      </c>
+      <c r="S57" s="24">
+        <v>0</v>
+      </c>
+      <c r="T57" s="24">
+        <v>0</v>
+      </c>
+      <c r="U57" s="24">
+        <v>0</v>
+      </c>
+      <c r="V57" s="24">
+        <v>0</v>
+      </c>
+      <c r="W57" s="24">
+        <v>0</v>
+      </c>
+      <c r="X57" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="24">
+        <v>0</v>
+      </c>
+      <c r="C58" s="24">
+        <v>0</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
+      <c r="E58" s="24">
+        <v>0</v>
+      </c>
+      <c r="F58" s="24">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0</v>
+      </c>
+      <c r="H58" s="24">
+        <v>0</v>
+      </c>
+      <c r="I58" s="24">
+        <v>0</v>
+      </c>
+      <c r="J58" s="24">
+        <v>0</v>
+      </c>
+      <c r="K58" s="24">
+        <v>0</v>
+      </c>
+      <c r="L58" s="24">
+        <v>0</v>
+      </c>
+      <c r="M58" s="24">
+        <v>0</v>
+      </c>
+      <c r="N58" s="24">
+        <v>0</v>
+      </c>
+      <c r="O58" s="24">
+        <v>0</v>
+      </c>
+      <c r="P58" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="24">
+        <v>0</v>
+      </c>
+      <c r="R58" s="24">
+        <v>0</v>
+      </c>
+      <c r="S58" s="24">
+        <v>0</v>
+      </c>
+      <c r="T58" s="24">
+        <v>0</v>
+      </c>
+      <c r="U58" s="24">
+        <v>0</v>
+      </c>
+      <c r="V58" s="24">
+        <v>0</v>
+      </c>
+      <c r="W58" s="24">
+        <v>0</v>
+      </c>
+      <c r="X58" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="24">
+        <v>0</v>
+      </c>
+      <c r="C59" s="24">
+        <v>0</v>
+      </c>
+      <c r="D59" s="24">
+        <v>0</v>
+      </c>
+      <c r="E59" s="24">
+        <v>0</v>
+      </c>
+      <c r="F59" s="24">
+        <v>0</v>
+      </c>
+      <c r="G59" s="24">
+        <v>0</v>
+      </c>
+      <c r="H59" s="24">
+        <v>0</v>
+      </c>
+      <c r="I59" s="24">
+        <v>0</v>
+      </c>
+      <c r="J59" s="24">
+        <v>0</v>
+      </c>
+      <c r="K59" s="24">
+        <v>0</v>
+      </c>
+      <c r="L59" s="24">
+        <v>0</v>
+      </c>
+      <c r="M59" s="24">
+        <v>0</v>
+      </c>
+      <c r="N59" s="24">
+        <v>0</v>
+      </c>
+      <c r="O59" s="24">
+        <v>0</v>
+      </c>
+      <c r="P59" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="24">
+        <v>0</v>
+      </c>
+      <c r="R59" s="24">
+        <v>0</v>
+      </c>
+      <c r="S59" s="24">
+        <v>0</v>
+      </c>
+      <c r="T59" s="24">
+        <v>0</v>
+      </c>
+      <c r="U59" s="24">
+        <v>0</v>
+      </c>
+      <c r="V59" s="24">
+        <v>0</v>
+      </c>
+      <c r="W59" s="24">
+        <v>0</v>
+      </c>
+      <c r="X59" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A60" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="24">
+        <v>0</v>
+      </c>
+      <c r="C60" s="24">
+        <v>0</v>
+      </c>
+      <c r="D60" s="24">
+        <v>0</v>
+      </c>
+      <c r="E60" s="24">
+        <v>0</v>
+      </c>
+      <c r="F60" s="24">
+        <v>0</v>
+      </c>
+      <c r="G60" s="24">
+        <v>0</v>
+      </c>
+      <c r="H60" s="24">
+        <v>0</v>
+      </c>
+      <c r="I60" s="24">
+        <v>0</v>
+      </c>
+      <c r="J60" s="24">
+        <v>0</v>
+      </c>
+      <c r="K60" s="24">
+        <v>0</v>
+      </c>
+      <c r="L60" s="24">
+        <v>0</v>
+      </c>
+      <c r="M60" s="24">
+        <v>0</v>
+      </c>
+      <c r="N60" s="24">
+        <v>0</v>
+      </c>
+      <c r="O60" s="24">
+        <v>0</v>
+      </c>
+      <c r="P60" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="24">
+        <v>0</v>
+      </c>
+      <c r="R60" s="24">
+        <v>0</v>
+      </c>
+      <c r="S60" s="24">
+        <v>0</v>
+      </c>
+      <c r="T60" s="24">
+        <v>0</v>
+      </c>
+      <c r="U60" s="24">
+        <v>0</v>
+      </c>
+      <c r="V60" s="24">
+        <v>0</v>
+      </c>
+      <c r="W60" s="24">
+        <v>0</v>
+      </c>
+      <c r="X60" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A61" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="24">
+        <v>0</v>
+      </c>
+      <c r="C61" s="24">
+        <v>0</v>
+      </c>
+      <c r="D61" s="24">
+        <v>0</v>
+      </c>
+      <c r="E61" s="24">
+        <v>0</v>
+      </c>
+      <c r="F61" s="24">
+        <v>0</v>
+      </c>
+      <c r="G61" s="24">
+        <v>0</v>
+      </c>
+      <c r="H61" s="24">
+        <v>0</v>
+      </c>
+      <c r="I61" s="24">
+        <v>0</v>
+      </c>
+      <c r="J61" s="24">
+        <v>0</v>
+      </c>
+      <c r="K61" s="24">
+        <v>0</v>
+      </c>
+      <c r="L61" s="24">
+        <v>0</v>
+      </c>
+      <c r="M61" s="24">
+        <v>0</v>
+      </c>
+      <c r="N61" s="24">
+        <v>0</v>
+      </c>
+      <c r="O61" s="24">
+        <v>0</v>
+      </c>
+      <c r="P61" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="24">
+        <v>0</v>
+      </c>
+      <c r="R61" s="24">
+        <v>0</v>
+      </c>
+      <c r="S61" s="24">
+        <v>0</v>
+      </c>
+      <c r="T61" s="24">
+        <v>0</v>
+      </c>
+      <c r="U61" s="24">
+        <v>0</v>
+      </c>
+      <c r="V61" s="24">
+        <v>0</v>
+      </c>
+      <c r="W61" s="24">
+        <v>0</v>
+      </c>
+      <c r="X61" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A62" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="24">
+        <v>0</v>
+      </c>
+      <c r="C62" s="24">
+        <v>0</v>
+      </c>
+      <c r="D62" s="24">
+        <v>0</v>
+      </c>
+      <c r="E62" s="24">
+        <v>0</v>
+      </c>
+      <c r="F62" s="24">
+        <v>0</v>
+      </c>
+      <c r="G62" s="24">
+        <v>0</v>
+      </c>
+      <c r="H62" s="24">
+        <v>0</v>
+      </c>
+      <c r="I62" s="24">
+        <v>0</v>
+      </c>
+      <c r="J62" s="24">
+        <v>0</v>
+      </c>
+      <c r="K62" s="24">
+        <v>0</v>
+      </c>
+      <c r="L62" s="24">
+        <v>0</v>
+      </c>
+      <c r="M62" s="24">
+        <v>0</v>
+      </c>
+      <c r="N62" s="24">
+        <v>0</v>
+      </c>
+      <c r="O62" s="24">
+        <v>0</v>
+      </c>
+      <c r="P62" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="24">
+        <v>0</v>
+      </c>
+      <c r="R62" s="24">
+        <v>0</v>
+      </c>
+      <c r="S62" s="24">
+        <v>0</v>
+      </c>
+      <c r="T62" s="24">
+        <v>0</v>
+      </c>
+      <c r="U62" s="24">
+        <v>0</v>
+      </c>
+      <c r="V62" s="24">
+        <v>0</v>
+      </c>
+      <c r="W62" s="24">
+        <v>0</v>
+      </c>
+      <c r="X62" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="15" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A63" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="24">
+        <v>0</v>
+      </c>
+      <c r="C63" s="24">
+        <v>0</v>
+      </c>
+      <c r="D63" s="24">
+        <v>0</v>
+      </c>
+      <c r="E63" s="24">
+        <v>0</v>
+      </c>
+      <c r="F63" s="24">
+        <v>0</v>
+      </c>
+      <c r="G63" s="24">
+        <v>0</v>
+      </c>
+      <c r="H63" s="24">
+        <v>0</v>
+      </c>
+      <c r="I63" s="24">
+        <v>0</v>
+      </c>
+      <c r="J63" s="24">
+        <v>0</v>
+      </c>
+      <c r="K63" s="24">
+        <v>0</v>
+      </c>
+      <c r="L63" s="24">
+        <v>0</v>
+      </c>
+      <c r="M63" s="24">
+        <v>0</v>
+      </c>
+      <c r="N63" s="24">
+        <v>0</v>
+      </c>
+      <c r="O63" s="24">
+        <v>0</v>
+      </c>
+      <c r="P63" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="24">
+        <v>0</v>
+      </c>
+      <c r="R63" s="24">
+        <v>0</v>
+      </c>
+      <c r="S63" s="24">
+        <v>0</v>
+      </c>
+      <c r="T63" s="24">
+        <v>0</v>
+      </c>
+      <c r="U63" s="24">
+        <v>0</v>
+      </c>
+      <c r="V63" s="24">
+        <v>0</v>
+      </c>
+      <c r="W63" s="24">
+        <v>0</v>
+      </c>
+      <c r="X63" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:30" ht="15" customHeight="1">
       <c r="A64" s="20"/>
@@ -7907,6 +8557,7 @@
       <c r="A130" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="87" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
